--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03638EA7-9CCA-4BBF-8C85-760936964168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81789C89-D176-4E59-9C73-CFD2C2550334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Questions Tracker" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Question Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Topic</t>
   </si>
@@ -49,13 +46,46 @@
   </si>
   <si>
     <t>Solving dates</t>
+  </si>
+  <si>
+    <t>Question Description</t>
+  </si>
+  <si>
+    <t>Sum from 1 to n</t>
+  </si>
+  <si>
+    <t>Required to Solve again</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Basic Question</t>
+  </si>
+  <si>
+    <t>Level(0-5)</t>
+  </si>
+  <si>
+    <t>For Loop</t>
+  </si>
+  <si>
+    <t>Fibonacci Series</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>If number is prime or not</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,16 +93,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,12 +125,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,35 +476,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DE015C-28F9-428F-8E3F-DA3063A7344F}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.08984375" customWidth="1"/>
+    <col min="2" max="2" width="38.1796875" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="F1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>44845</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>44845</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>44845</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81789C89-D176-4E59-9C73-CFD2C2550334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A91BE1-99B7-4AA4-85DC-6DB2BF8FD4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions Tracker" sheetId="1" r:id="rId1"/>
+    <sheet name="Concepts to remeber" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Leetcode">'Questions Tracker'!$C$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>Topic</t>
   </si>
@@ -79,13 +83,92 @@
   </si>
   <si>
     <t>If number is prime or not</t>
+  </si>
+  <si>
+    <t>1281. Subtract the Product and Sum of Digits of an Integer</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>LeetCode</t>
+  </si>
+  <si>
+    <t>While loop</t>
+  </si>
+  <si>
+    <t>191. Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>Bitwise Operation</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>number &amp; 1</t>
+  </si>
+  <si>
+    <t>When we do AND of any number with 1 and if it returns 0 then it is an odd number else it is an even number.
+Number&amp;1 - basically does the AND of last bit of that number with 1.</t>
+  </si>
+  <si>
+    <t>Lecture covered</t>
+  </si>
+  <si>
+    <t>Lecture 6: Binary &amp; Decimal Number System</t>
+  </si>
+  <si>
+    <t>answer = (digit * answer^i) + answer</t>
+  </si>
+  <si>
+    <t>answer = (10* answer) + digit</t>
+  </si>
+  <si>
+    <t>Formula to print integer in same flow (ex: 123 -&gt; 123)</t>
+  </si>
+  <si>
+    <t>Formula to reverse an integer (ex: 123 -&gt; 321)</t>
+  </si>
+  <si>
+    <t>Decimal to Binary conversion</t>
+  </si>
+  <si>
+    <t>Integer Range -&gt; (-2^31) to (2^31-1)</t>
+  </si>
+  <si>
+    <t>If you get out of this range it will return garbage value</t>
+  </si>
+  <si>
+    <t>Negative number to binary conversion</t>
+  </si>
+  <si>
+    <t>Program for replacing one digit with other</t>
+  </si>
+  <si>
+    <t>geeksforgeeks</t>
+  </si>
+  <si>
+    <t>Having problem in 2's compliment as how to replace just a single digit in integer so googled it and found this solution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +181,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,10 +232,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -162,8 +254,83 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,22 +643,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DE015C-28F9-428F-8E3F-DA3063A7344F}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" customWidth="1"/>
-    <col min="2" max="2" width="38.1796875" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26.26953125" style="13" customWidth="1"/>
     <col min="4" max="4" width="20.26953125" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1"/>
-    <col min="6" max="6" width="18.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="6" max="6" width="12" style="2" customWidth="1"/>
     <col min="7" max="7" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6328125" customWidth="1"/>
+    <col min="8" max="8" width="40.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -501,7 +668,7 @@
       <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -527,7 +694,7 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="3">
         <v>1</v>
       </c>
@@ -551,7 +718,7 @@
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="3">
         <v>1</v>
       </c>
@@ -575,7 +742,7 @@
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="3">
         <v>1</v>
       </c>
@@ -592,8 +759,216 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>44845</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>44845</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>44845</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>44876</v>
+      </c>
+      <c r="F8" s="27">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="32">
+        <v>1</v>
+      </c>
+      <c r="E9" s="28">
+        <v>44876</v>
+      </c>
+      <c r="F9" s="33">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{6A12171F-B82B-4AFA-AD02-AF70AA0770D0}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{AF657391-B7C0-4E8D-9015-410D20FF0511}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{28CED1E5-703D-4C1F-A7BA-AD39ABDB401C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E97AED2-646B-4C74-8BF8-BADCE88819AE}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.1796875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="37.81640625" style="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="26"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{CABC0D4D-B593-4D72-96D0-63C398F8EB41}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{FB6ED79F-E1A9-443E-8FEF-AF4A08694CF2}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{5CF1B0B9-27BA-43B2-81CC-AF2E52D28B52}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A91BE1-99B7-4AA4-85DC-6DB2BF8FD4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5218007D-A4F1-4224-B5DC-FF5C935AD405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>Topic</t>
   </si>
@@ -86,18 +86,6 @@
   </si>
   <si>
     <t>1281. Subtract the Product and Sum of Digits of an Integer</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>LeetCode</t>
@@ -137,12 +125,6 @@
     <t>answer = (10* answer) + digit</t>
   </si>
   <si>
-    <t>Formula to print integer in same flow (ex: 123 -&gt; 123)</t>
-  </si>
-  <si>
-    <t>Formula to reverse an integer (ex: 123 -&gt; 321)</t>
-  </si>
-  <si>
     <t>Decimal to Binary conversion</t>
   </si>
   <si>
@@ -162,6 +144,51 @@
   </si>
   <si>
     <t>Having problem in 2's compliment as how to replace just a single digit in integer so googled it and found this solution</t>
+  </si>
+  <si>
+    <t>It basically traverse and go throght number from ones place to tens place then hundredth place and so on. Solve Question 9 to understand</t>
+  </si>
+  <si>
+    <t>Good Question</t>
+  </si>
+  <si>
+    <t>1's complement</t>
+  </si>
+  <si>
+    <t>Flip 0 -&gt; 1 and 1 -&gt; 0</t>
+  </si>
+  <si>
+    <t>2's complement</t>
+  </si>
+  <si>
+    <t>Start from right and move towards left until you find 1, once you find one keep it as it is and flip all the numbers to the left of that 1. That will gove you twos complement of that number.
+Ex: 100100 -&gt; 011100</t>
+  </si>
+  <si>
+    <t>Right Shift</t>
+  </si>
+  <si>
+    <t>Left Shift</t>
+  </si>
+  <si>
+    <t>When we right shift a number, it get divided by 2.
+ex: 4 &gt;&gt; 1 -&gt; In binary 4 is 0100, after one right shift it is 0010 which is nothing but 2, that means 4/2 = 2. so when we do a right shift number gets divided by 2</t>
+  </si>
+  <si>
+    <t>When we left shift a number, it get multiplied by 2.
+ex: 4 &lt;&lt; 1 -&gt; In binary 4 is 0100, after one left shift it is 1000 which is nothing but 8, that means 4*2 = 8. so when we do a left shift number gets multiplied by 2</t>
+  </si>
+  <si>
+    <t>Binary to Decimal Conversion</t>
+  </si>
+  <si>
+    <t>NOTE: is me maine galti kiya ki mai bit level pe solve kr raha tha question. To jb mai 1011 ka AND kiya 1 ke saath to compiler to 1011 ko as a number treat kr raha tha jis ka bit representtion bahot bada tha, to maine seekha ki yaha digit pe work krna hoga. 1011%10 and 1011/10 kr ke solve hoga ye question</t>
+  </si>
+  <si>
+    <t>7. Reverse Integer</t>
+  </si>
+  <si>
+    <t>Formula to print integer in reverse flow (ex: 123 -&gt; 321)</t>
   </si>
 </sst>
 </file>
@@ -194,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +231,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,22 +269,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -306,28 +327,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -643,244 +686,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DE015C-28F9-428F-8E3F-DA3063A7344F}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.08984375" customWidth="1"/>
     <col min="2" max="2" width="35.54296875" customWidth="1"/>
-    <col min="3" max="3" width="26.26953125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" customWidth="1"/>
-    <col min="6" max="6" width="12" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.26953125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="12" style="27" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="29" customWidth="1"/>
     <col min="8" max="8" width="40.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="C2" s="5"/>
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="25">
         <v>44845</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="26">
         <v>0</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="C3" s="5"/>
+      <c r="D3" s="20">
+        <v>1</v>
+      </c>
+      <c r="E3" s="25">
         <v>44845</v>
       </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="26">
+        <v>1</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="C4" s="5"/>
+      <c r="D4" s="20">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25">
         <v>44845</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="26">
         <v>0</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="20">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
         <v>44845</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="26">
         <v>0</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
         <v>44845</v>
       </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="26">
+        <v>1</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="20">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25">
+        <v>44845</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33">
+        <v>44876</v>
+      </c>
+      <c r="F8" s="34">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25">
+        <v>44876</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>44845</v>
-      </c>
-      <c r="F7" s="5">
+    </row>
+    <row r="10" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
+      <c r="E10" s="25">
+        <v>44906</v>
+      </c>
+      <c r="F10" s="26">
         <v>0</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1</v>
+      </c>
+      <c r="E11" s="25">
+        <v>44906</v>
+      </c>
+      <c r="F11" s="26">
+        <v>1</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="14">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>44876</v>
-      </c>
-      <c r="F8" s="27">
-        <v>2</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="32">
-        <v>1</v>
-      </c>
-      <c r="E9" s="28">
-        <v>44876</v>
-      </c>
-      <c r="F9" s="33">
-        <v>0</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -888,87 +979,131 @@
     <hyperlink ref="C5" r:id="rId1" xr:uid="{6A12171F-B82B-4AFA-AD02-AF70AA0770D0}"/>
     <hyperlink ref="C6" r:id="rId2" xr:uid="{AF657391-B7C0-4E8D-9015-410D20FF0511}"/>
     <hyperlink ref="C9" r:id="rId3" xr:uid="{28CED1E5-703D-4C1F-A7BA-AD39ABDB401C}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{EDD6A375-857F-46E5-AB45-B9525BFC3E78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E97AED2-646B-4C74-8BF8-BADCE88819AE}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.1796875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="37.81640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.1796875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="37.81640625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="23" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="59" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="B4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{CABC0D4D-B593-4D72-96D0-63C398F8EB41}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{FB6ED79F-E1A9-443E-8FEF-AF4A08694CF2}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{5CF1B0B9-27BA-43B2-81CC-AF2E52D28B52}"/>
+    <hyperlink ref="C8" r:id="rId4" display="https://youtu.be/bWrsk0QizEk?list=PLDzeHZWIZsTryvtXdMr6rPh4IDexB5NIA&amp;t=1497" xr:uid="{2A1CECBA-7E00-4D34-A972-E20FD262BAEE}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{AC8AC46C-DBA1-40D0-8FCF-C05ABAB6E128}"/>
+    <hyperlink ref="C8:C9" r:id="rId6" display="Lecture 6: Binary &amp; Decimal Number System" xr:uid="{7483284D-2C95-4B73-92F7-D6B427CFA8F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5218007D-A4F1-4224-B5DC-FF5C935AD405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD07411-3664-412B-9F84-152E849E95A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>Topic</t>
   </si>
@@ -189,6 +189,26 @@
   </si>
   <si>
     <t>Formula to print integer in reverse flow (ex: 123 -&gt; 321)</t>
+  </si>
+  <si>
+    <t>1009. Complement of Base 10 Integer</t>
+  </si>
+  <si>
+    <t>used masking method and formula of
+(~number) &amp; mask = complement of base 10;</t>
+  </si>
+  <si>
+    <t>(~number)&amp;mask</t>
+  </si>
+  <si>
+    <t>This formula basically flips all the 0's to 1's and vice versa and returns the decimal after that.
+Ex: 8 -&gt; 1000, so after flip 0111 which is 7. So this formula will return 7.</t>
+  </si>
+  <si>
+    <t>231. Power of Two</t>
+  </si>
+  <si>
+    <t>Total Number of setbits in a&amp;b</t>
   </si>
 </sst>
 </file>
@@ -241,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -264,12 +284,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -371,6 +402,13 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -686,10 +724,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DE015C-28F9-428F-8E3F-DA3063A7344F}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -974,24 +1013,72 @@
         <v>9</v>
       </c>
     </row>
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1</v>
+      </c>
+      <c r="E12" s="25">
+        <v>44906</v>
+      </c>
+      <c r="F12" s="26">
+        <v>2</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="25">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="37" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{6A12171F-B82B-4AFA-AD02-AF70AA0770D0}"/>
     <hyperlink ref="C6" r:id="rId2" xr:uid="{AF657391-B7C0-4E8D-9015-410D20FF0511}"/>
     <hyperlink ref="C9" r:id="rId3" xr:uid="{28CED1E5-703D-4C1F-A7BA-AD39ABDB401C}"/>
     <hyperlink ref="C11" r:id="rId4" xr:uid="{EDD6A375-857F-46E5-AB45-B9525BFC3E78}"/>
+    <hyperlink ref="C12" r:id="rId5" xr:uid="{62F2877C-F68E-405C-B8A3-724EDEF538B7}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{DDEF50B1-D827-4A33-A033-7AC948D5C0D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E97AED2-646B-4C74-8BF8-BADCE88819AE}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1094,6 +1181,17 @@
         <v>25</v>
       </c>
     </row>
+    <row r="10" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{CABC0D4D-B593-4D72-96D0-63C398F8EB41}"/>
@@ -1102,8 +1200,9 @@
     <hyperlink ref="C8" r:id="rId4" display="https://youtu.be/bWrsk0QizEk?list=PLDzeHZWIZsTryvtXdMr6rPh4IDexB5NIA&amp;t=1497" xr:uid="{2A1CECBA-7E00-4D34-A972-E20FD262BAEE}"/>
     <hyperlink ref="C9" r:id="rId5" xr:uid="{AC8AC46C-DBA1-40D0-8FCF-C05ABAB6E128}"/>
     <hyperlink ref="C8:C9" r:id="rId6" display="Lecture 6: Binary &amp; Decimal Number System" xr:uid="{7483284D-2C95-4B73-92F7-D6B427CFA8F6}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{1DB78E40-65D1-4BCA-89B0-86162280D49D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD07411-3664-412B-9F84-152E849E95A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DE253C-1DD0-46DD-9CDE-7EED2BD8B95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>Topic</t>
   </si>
@@ -209,13 +209,19 @@
   </si>
   <si>
     <t>Total Number of setbits in a&amp;b</t>
+  </si>
+  <si>
+    <t>nth Fibonacci number</t>
+  </si>
+  <si>
+    <t>ARRAYS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,8 +246,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,8 +274,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -284,23 +304,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -401,13 +410,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -724,17 +756,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DE015C-28F9-428F-8E3F-DA3063A7344F}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" customWidth="1"/>
-    <col min="2" max="2" width="35.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" style="45" customWidth="1"/>
     <col min="3" max="3" width="26.26953125" style="7" customWidth="1"/>
     <col min="4" max="4" width="20.26953125" style="19" customWidth="1"/>
     <col min="5" max="5" width="16.08984375" style="19" customWidth="1"/>
@@ -744,10 +776,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="39" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -770,10 +802,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="5"/>
@@ -794,10 +826,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="40" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5"/>
@@ -818,10 +850,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="5"/>
@@ -842,10 +874,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -868,10 +900,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="42" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -894,10 +926,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="42" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="5"/>
@@ -917,11 +949,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="43" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="31"/>
@@ -940,10 +972,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="44" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -966,10 +998,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="5"/>
@@ -990,8 +1022,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="42" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1014,10 +1046,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="42" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1035,30 +1067,94 @@
       <c r="G12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="20">
         <v>1</v>
       </c>
       <c r="E13" s="25">
         <v>44906</v>
       </c>
+      <c r="F13" s="26">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="37" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="42" t="s">
         <v>54</v>
       </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="20">
+        <v>1</v>
+      </c>
+      <c r="E14" s="25">
+        <v>44906</v>
+      </c>
+      <c r="F14" s="26">
+        <v>0</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="20"/>
+      <c r="B15" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="20">
+        <v>1</v>
+      </c>
+      <c r="E15" s="25">
+        <v>44906</v>
+      </c>
+      <c r="F15" s="26">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:H16"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{6A12171F-B82B-4AFA-AD02-AF70AA0770D0}"/>
     <hyperlink ref="C6" r:id="rId2" xr:uid="{AF657391-B7C0-4E8D-9015-410D20FF0511}"/>

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DE253C-1DD0-46DD-9CDE-7EED2BD8B95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6336A631-AD7D-4602-A574-F67EBD8B2CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t>Topic</t>
   </si>
@@ -215,6 +215,18 @@
   </si>
   <si>
     <t>ARRAYS</t>
+  </si>
+  <si>
+    <t>Minimum and Maximim in an array</t>
+  </si>
+  <si>
+    <t>If number of set bit of a number is equal to 1 then yes it is power of two else no it is not power of two</t>
+  </si>
+  <si>
+    <t>Linear Search</t>
+  </si>
+  <si>
+    <t>Reverse and array</t>
   </si>
 </sst>
 </file>
@@ -309,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -417,29 +429,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -756,17 +759,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DE015C-28F9-428F-8E3F-DA3063A7344F}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.08984375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="35.54296875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" style="11" customWidth="1"/>
     <col min="3" max="3" width="26.26953125" style="7" customWidth="1"/>
     <col min="4" max="4" width="20.26953125" style="19" customWidth="1"/>
     <col min="5" max="5" width="16.08984375" style="19" customWidth="1"/>
@@ -779,7 +782,7 @@
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -805,7 +808,7 @@
       <c r="A2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="5"/>
@@ -829,7 +832,7 @@
       <c r="A3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5"/>
@@ -853,7 +856,7 @@
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="5"/>
@@ -877,7 +880,7 @@
       <c r="A5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="42" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -903,7 +906,7 @@
       <c r="A6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="39" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -929,7 +932,7 @@
       <c r="A7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="39" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="5"/>
@@ -975,7 +978,7 @@
       <c r="A9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="39" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1023,7 +1026,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="39" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1049,7 +1052,7 @@
       <c r="A12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1071,9 +1074,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="39" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1091,13 +1094,13 @@
       <c r="G13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>9</v>
+      <c r="H13" s="36" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="39" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="5"/>
@@ -1119,7 +1122,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="5"/>
@@ -1140,16 +1143,82 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="20"/>
+      <c r="B17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="20">
+        <v>1</v>
+      </c>
+      <c r="E17" s="25">
+        <v>44906</v>
+      </c>
+      <c r="F17" s="26">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="20"/>
+      <c r="B18" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="20">
+        <v>1</v>
+      </c>
+      <c r="E18" s="25">
+        <v>44906</v>
+      </c>
+      <c r="F18" s="26">
+        <v>0</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="20"/>
+      <c r="B19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="20">
+        <v>1</v>
+      </c>
+      <c r="E19" s="25">
+        <v>44906</v>
+      </c>
+      <c r="F19" s="26">
+        <v>0</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6336A631-AD7D-4602-A574-F67EBD8B2CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7427735-7A6D-4E93-AAC6-FF2DAE6AE47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>Topic</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>Reverse and array</t>
+  </si>
+  <si>
+    <t>13/11/2022</t>
+  </si>
+  <si>
+    <t>Swap Alternate</t>
   </si>
 </sst>
 </file>
@@ -432,17 +438,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -759,11 +765,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DE015C-28F9-428F-8E3F-DA3063A7344F}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -782,7 +788,7 @@
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -880,7 +886,7 @@
       <c r="A5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -956,7 +962,7 @@
       <c r="A8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="31"/>
@@ -1143,16 +1149,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
@@ -1219,6 +1225,368 @@
       <c r="H19" s="1" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="20"/>
+      <c r="B20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="20"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="20"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="20"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="20"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="20"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="20"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="20"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="20"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="20"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="20"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="20"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="20"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="20"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="20"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="20"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="20"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="20"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="20"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="20"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="20"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="20"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="20"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="20"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="20"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="20"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="20"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="20"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="20"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="20"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="20"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="20"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="20"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="20"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="20"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7427735-7A6D-4E93-AAC6-FF2DAE6AE47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B259C7-9885-4ECF-B209-B44F65DF2601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions Tracker" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
   <si>
     <t>Topic</t>
   </si>
@@ -233,6 +233,20 @@
   </si>
   <si>
     <t>Swap Alternate</t>
+  </si>
+  <si>
+    <t>XOR property</t>
+  </si>
+  <si>
+    <t>When same number appers twice in XOR operation it cancels out each other. 
+XOR is mostly used to find unique element since it cancels our similar element from array.
+Ex: 2,5,3,4,4,5,2 -&gt; XOR of this with itself will cancel all the duplicate and return 3 which is unique in this list.</t>
+  </si>
+  <si>
+    <t>codingninjas</t>
+  </si>
+  <si>
+    <t>a^a = 0; a^0=a</t>
   </si>
 </sst>
 </file>
@@ -327,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -376,9 +390,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -448,6 +459,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,43 +787,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DE015C-28F9-428F-8E3F-DA3063A7344F}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" style="19" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" style="18" customWidth="1"/>
     <col min="2" max="2" width="35.54296875" style="11" customWidth="1"/>
     <col min="3" max="3" width="26.26953125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="12" style="27" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12" style="26" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="28" customWidth="1"/>
     <col min="8" max="8" width="40.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -811,23 +831,23 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="20">
-        <v>1</v>
-      </c>
-      <c r="E2" s="25">
+      <c r="D2" s="19">
+        <v>1</v>
+      </c>
+      <c r="E2" s="24">
         <v>44845</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="25">
         <v>0</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -835,23 +855,23 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="20">
-        <v>1</v>
-      </c>
-      <c r="E3" s="25">
+      <c r="D3" s="19">
+        <v>1</v>
+      </c>
+      <c r="E3" s="24">
         <v>44845</v>
       </c>
-      <c r="F3" s="26">
-        <v>1</v>
-      </c>
-      <c r="G3" s="28" t="s">
+      <c r="F3" s="25">
+        <v>1</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -859,23 +879,23 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="20">
-        <v>1</v>
-      </c>
-      <c r="E4" s="25">
+      <c r="D4" s="19">
+        <v>1</v>
+      </c>
+      <c r="E4" s="24">
         <v>44845</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <v>0</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -883,25 +903,25 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="20">
-        <v>1</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="24">
         <v>44845</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <v>0</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="27" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -909,25 +929,25 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="20">
-        <v>1</v>
-      </c>
-      <c r="E6" s="25">
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24">
         <v>44845</v>
       </c>
-      <c r="F6" s="26">
-        <v>1</v>
-      </c>
-      <c r="G6" s="28" t="s">
+      <c r="F6" s="25">
+        <v>1</v>
+      </c>
+      <c r="G6" s="27" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -935,95 +955,95 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="20">
-        <v>1</v>
-      </c>
-      <c r="E7" s="25">
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
         <v>44845</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>0</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33">
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32">
         <v>44876</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="33">
         <v>2</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="21">
-        <v>1</v>
-      </c>
-      <c r="E9" s="25">
+      <c r="D9" s="20">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24">
         <v>44876</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="25">
         <v>0</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="20">
-        <v>1</v>
-      </c>
-      <c r="E10" s="25">
+      <c r="D10" s="19">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24">
         <v>44906</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="25">
         <v>0</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="27" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -1031,23 +1051,23 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="B11" s="39" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="20">
-        <v>1</v>
-      </c>
-      <c r="E11" s="25">
+      <c r="D11" s="19">
+        <v>1</v>
+      </c>
+      <c r="E11" s="24">
         <v>44906</v>
       </c>
-      <c r="F11" s="26">
-        <v>1</v>
-      </c>
-      <c r="G11" s="28" t="s">
+      <c r="F11" s="25">
+        <v>1</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1055,71 +1075,71 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="20">
-        <v>1</v>
-      </c>
-      <c r="E12" s="25">
+      <c r="D12" s="19">
+        <v>1</v>
+      </c>
+      <c r="E12" s="24">
         <v>44906</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="25">
         <v>2</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="38" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="20">
-        <v>1</v>
-      </c>
-      <c r="E13" s="25">
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="24">
         <v>44906</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="25">
         <v>0</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="35" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="38" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="20">
-        <v>1</v>
-      </c>
-      <c r="E14" s="25">
+      <c r="D14" s="19">
+        <v>1</v>
+      </c>
+      <c r="E14" s="24">
         <v>44906</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="25">
         <v>0</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="27" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1127,21 +1147,21 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="20">
-        <v>1</v>
-      </c>
-      <c r="E15" s="25">
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="24">
         <v>44906</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="25">
         <v>0</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="27" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="8" t="s">
@@ -1149,33 +1169,33 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="20">
-        <v>1</v>
-      </c>
-      <c r="E17" s="25">
+      <c r="D17" s="19">
+        <v>1</v>
+      </c>
+      <c r="E17" s="24">
         <v>44906</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="25">
         <v>0</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="27" t="s">
         <v>7</v>
       </c>
       <c r="H17" s="8" t="s">
@@ -1183,21 +1203,21 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="20">
-        <v>1</v>
-      </c>
-      <c r="E18" s="25">
+      <c r="D18" s="19">
+        <v>1</v>
+      </c>
+      <c r="E18" s="24">
         <v>44906</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="25">
         <v>0</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="27" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -1205,21 +1225,21 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="20">
-        <v>1</v>
-      </c>
-      <c r="E19" s="25">
+      <c r="D19" s="19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="24">
         <v>44906</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="25">
         <v>0</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="27" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -1227,21 +1247,21 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="20"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="28" t="s">
+      <c r="D20" s="19">
+        <v>1</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="25">
         <v>0</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="27" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -1249,343 +1269,343 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="20"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="12"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="28"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="20"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="12"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="28"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="20"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="12"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="28"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="20"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="12"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="28"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="20"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="12"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="28"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="27"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="20"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="12"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="28"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="20"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="12"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="28"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="20"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="12"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="28"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="20"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="12"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="28"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="20"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="12"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="28"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="20"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="12"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="28"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="27"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="20"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="12"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="28"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="20"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="12"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="28"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="20"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="12"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="28"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="20"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="12"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="28"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="27"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="20"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="12"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="28"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="27"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="20"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="12"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="28"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="27"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="20"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="12"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="28"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="27"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="20"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="12"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="28"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="20"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="12"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="28"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="27"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="20"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="12"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="28"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="27"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="20"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="12"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="28"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="27"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="20"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="12"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="28"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="27"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="20"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="12"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="28"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="27"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="20"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="12"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="28"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="20"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="12"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="28"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="20"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="12"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="28"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="20"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="12"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="28"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="27"/>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="20"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="12"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="28"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="27"/>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="20"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="12"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="28"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="27"/>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="20"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="12"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="28"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="27"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="20"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="12"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="28"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="27"/>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="20"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="12"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="28"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="27"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="20"/>
+      <c r="A54" s="19"/>
       <c r="B54" s="12"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="28"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="27"/>
       <c r="H54" s="1"/>
     </row>
   </sheetData>
@@ -1607,18 +1627,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E97AED2-646B-4C74-8BF8-BADCE88819AE}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.54296875" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.1796875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="37.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.81640625" style="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1628,7 +1648,7 @@
       <c r="B1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1639,7 +1659,7 @@
       <c r="B2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1650,7 +1670,7 @@
       <c r="B3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1661,7 +1681,7 @@
       <c r="B4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1672,7 +1692,7 @@
       <c r="B5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="44"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
@@ -1681,7 +1701,7 @@
       <c r="B6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="44"/>
     </row>
     <row r="7" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
@@ -1690,7 +1710,7 @@
       <c r="B7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="44"/>
     </row>
     <row r="8" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
@@ -1699,7 +1719,7 @@
       <c r="B8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1710,7 +1730,7 @@
       <c r="B9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1724,6 +1744,146 @@
       <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="11" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="44"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="12"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="44"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="12"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="44"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="12"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="44"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="12"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="44"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="12"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="44"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="12"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="44"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="12"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="44"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="12"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="44"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="12"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="44"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="12"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="44"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="12"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="44"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="12"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="44"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="12"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="44"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="12"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="44"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="44"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="12"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="44"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="12"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="44"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="12"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="44"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="12"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="44"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="12"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="44"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="12"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="44"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="12"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="44"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="12"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="44"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="12"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="44"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1734,8 +1894,9 @@
     <hyperlink ref="C9" r:id="rId5" xr:uid="{AC8AC46C-DBA1-40D0-8FCF-C05ABAB6E128}"/>
     <hyperlink ref="C8:C9" r:id="rId6" display="Lecture 6: Binary &amp; Decimal Number System" xr:uid="{7483284D-2C95-4B73-92F7-D6B427CFA8F6}"/>
     <hyperlink ref="C10" r:id="rId7" xr:uid="{1DB78E40-65D1-4BCA-89B0-86162280D49D}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{F6843F7A-C96C-4324-B59D-B042C7C1647B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B259C7-9885-4ECF-B209-B44F65DF2601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F87924A-126C-4872-B089-B783D0A8C865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions Tracker" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
   <si>
     <t>Topic</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>a^a = 0; a^0=a</t>
+  </si>
+  <si>
+    <t>Find Unique</t>
   </si>
 </sst>
 </file>
@@ -458,9 +461,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -468,6 +468,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -787,9 +790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DE015C-28F9-428F-8E3F-DA3063A7344F}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1169,16 +1172,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="19"/>
@@ -1270,13 +1273,27 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="19"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="1"/>
+      <c r="B21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="19">
+        <v>1</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="19"/>
@@ -1619,9 +1636,10 @@
     <hyperlink ref="C11" r:id="rId4" xr:uid="{EDD6A375-857F-46E5-AB45-B9525BFC3E78}"/>
     <hyperlink ref="C12" r:id="rId5" xr:uid="{62F2877C-F68E-405C-B8A3-724EDEF538B7}"/>
     <hyperlink ref="C13" r:id="rId6" xr:uid="{DDEF50B1-D827-4A33-A033-7AC948D5C0D9}"/>
+    <hyperlink ref="C21" r:id="rId7" xr:uid="{B6EF3D85-2AD5-4F43-B4E1-C6DD4D42FBB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1629,7 +1647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E97AED2-646B-4C74-8BF8-BADCE88819AE}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
@@ -1638,7 +1656,7 @@
   <cols>
     <col min="1" max="1" width="31.54296875" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.1796875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="37.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.81640625" style="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1659,7 +1677,7 @@
       <c r="B2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1670,7 +1688,7 @@
       <c r="B3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="42" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1681,7 +1699,7 @@
       <c r="B4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="42" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1692,7 +1710,7 @@
       <c r="B5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="43"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
@@ -1701,7 +1719,7 @@
       <c r="B6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="43"/>
     </row>
     <row r="7" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
@@ -1710,7 +1728,7 @@
       <c r="B7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="43"/>
     </row>
     <row r="8" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
@@ -1719,7 +1737,7 @@
       <c r="B8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="42" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1730,7 +1748,7 @@
       <c r="B9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="42" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1752,7 +1770,7 @@
       <c r="B11" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="42" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1763,127 +1781,127 @@
       <c r="B12" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="43"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="44"/>
+      <c r="C13" s="43"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="44"/>
+      <c r="C14" s="43"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="44"/>
+      <c r="C15" s="43"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="44"/>
+      <c r="C16" s="43"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="44"/>
+      <c r="C17" s="43"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="44"/>
+      <c r="C18" s="43"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="44"/>
+      <c r="C19" s="43"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="44"/>
+      <c r="C20" s="43"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="44"/>
+      <c r="C21" s="43"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="44"/>
+      <c r="C22" s="43"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="44"/>
+      <c r="C23" s="43"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="15"/>
-      <c r="C24" s="44"/>
+      <c r="C24" s="43"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="44"/>
+      <c r="C25" s="43"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="15"/>
-      <c r="C26" s="44"/>
+      <c r="C26" s="43"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="44"/>
+      <c r="C27" s="43"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="44"/>
+      <c r="C28" s="43"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="15"/>
-      <c r="C29" s="44"/>
+      <c r="C29" s="43"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="15"/>
-      <c r="C30" s="44"/>
+      <c r="C30" s="43"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="44"/>
+      <c r="C31" s="43"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="15"/>
-      <c r="C32" s="44"/>
+      <c r="C32" s="43"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="15"/>
-      <c r="C33" s="44"/>
+      <c r="C33" s="43"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="15"/>
-      <c r="C34" s="44"/>
+      <c r="C34" s="43"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="44"/>
+      <c r="C35" s="43"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="15"/>
-      <c r="C36" s="44"/>
+      <c r="C36" s="43"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F87924A-126C-4872-B089-B783D0A8C865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB471218-0C00-4BEB-9ACA-A77DAC78A0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
   <si>
     <t>Topic</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>Find Unique</t>
+  </si>
+  <si>
+    <t>1207. Unique Number of Occurrences</t>
   </si>
 </sst>
 </file>
@@ -792,7 +795,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1297,13 +1300,27 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="19"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="1"/>
+      <c r="B22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="19">
+        <v>1</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="25">
+        <v>1</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
@@ -1637,9 +1654,10 @@
     <hyperlink ref="C12" r:id="rId5" xr:uid="{62F2877C-F68E-405C-B8A3-724EDEF538B7}"/>
     <hyperlink ref="C13" r:id="rId6" xr:uid="{DDEF50B1-D827-4A33-A033-7AC948D5C0D9}"/>
     <hyperlink ref="C21" r:id="rId7" xr:uid="{B6EF3D85-2AD5-4F43-B4E1-C6DD4D42FBB0}"/>
+    <hyperlink ref="C22" r:id="rId8" xr:uid="{D49C59EA-6145-4221-8FBD-FE0AA1F68CD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB471218-0C00-4BEB-9ACA-A77DAC78A0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB5B1C7-D3DF-44FA-951E-CB7F438AE3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
   <si>
     <t>Topic</t>
   </si>
@@ -253,6 +253,15 @@
   </si>
   <si>
     <t>1207. Unique Number of Occurrences</t>
+  </si>
+  <si>
+    <t>Duplicate In Array</t>
+  </si>
+  <si>
+    <t>XOR Question</t>
+  </si>
+  <si>
+    <t>442. Find All Duplicates in an Array</t>
   </si>
 </sst>
 </file>
@@ -794,8 +803,8 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1324,23 +1333,51 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="1"/>
+      <c r="B23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="19">
+        <v>1</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="25">
+        <v>1</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="19"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="1"/>
+      <c r="B24" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="19">
+        <v>1</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="25">
+        <v>1</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="19"/>
@@ -1655,9 +1692,11 @@
     <hyperlink ref="C13" r:id="rId6" xr:uid="{DDEF50B1-D827-4A33-A033-7AC948D5C0D9}"/>
     <hyperlink ref="C21" r:id="rId7" xr:uid="{B6EF3D85-2AD5-4F43-B4E1-C6DD4D42FBB0}"/>
     <hyperlink ref="C22" r:id="rId8" xr:uid="{D49C59EA-6145-4221-8FBD-FE0AA1F68CD9}"/>
+    <hyperlink ref="C23" r:id="rId9" xr:uid="{63D69603-55B5-4821-A427-D9A8304668F7}"/>
+    <hyperlink ref="C24" r:id="rId10" xr:uid="{1B0CF868-B72A-4A70-9C32-4D164D51B07F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -1667,7 +1706,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB5B1C7-D3DF-44FA-951E-CB7F438AE3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E25A030-D45A-40E6-94ED-8A3A983C326F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
   <si>
     <t>Topic</t>
   </si>
@@ -262,6 +262,21 @@
   </si>
   <si>
     <t>442. Find All Duplicates in an Array</t>
+  </si>
+  <si>
+    <t>Intersection Of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Pair Sum</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not completed </t>
+  </si>
+  <si>
+    <t>Sort 0 1</t>
   </si>
 </sst>
 </file>
@@ -803,8 +818,8 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1381,39 +1396,83 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="19"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="1"/>
+      <c r="B25" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="19"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="1"/>
+      <c r="B26" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="19">
+        <v>1</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="25">
+        <v>1</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="19"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="19">
+        <v>1</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="25">
+        <v>2</v>
+      </c>
       <c r="G27" s="27"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="19"/>
-      <c r="B28" s="12"/>
+      <c r="B28" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="19"/>
+      <c r="D28" s="19">
+        <v>1</v>
+      </c>
       <c r="E28" s="19"/>
       <c r="F28" s="25"/>
       <c r="G28" s="27"/>
@@ -1694,9 +1753,12 @@
     <hyperlink ref="C22" r:id="rId8" xr:uid="{D49C59EA-6145-4221-8FBD-FE0AA1F68CD9}"/>
     <hyperlink ref="C23" r:id="rId9" xr:uid="{63D69603-55B5-4821-A427-D9A8304668F7}"/>
     <hyperlink ref="C24" r:id="rId10" xr:uid="{1B0CF868-B72A-4A70-9C32-4D164D51B07F}"/>
+    <hyperlink ref="C25" r:id="rId11" xr:uid="{91F1A24F-16E0-41DF-BDCA-DD9885716035}"/>
+    <hyperlink ref="C26" r:id="rId12" xr:uid="{2614CDCD-FF3D-41E1-87FB-522C82AE1209}"/>
+    <hyperlink ref="C27" r:id="rId13" xr:uid="{2CCA553C-55B2-430F-8F64-51C76D71C661}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E25A030-D45A-40E6-94ED-8A3A983C326F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F405ED5-03C9-4B22-AAA6-D10851D6C379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="79">
   <si>
     <t>Topic</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>Sort 0 1</t>
+  </si>
+  <si>
+    <t>14/11/2022</t>
+  </si>
+  <si>
+    <t>Sort 0 1 2(Dutch national flag problem)</t>
   </si>
 </sst>
 </file>
@@ -317,7 +323,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +345,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -438,9 +450,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -460,9 +469,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -500,6 +506,31 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -819,7 +850,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28:H28"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -828,17 +859,17 @@
     <col min="2" max="2" width="35.54296875" style="11" customWidth="1"/>
     <col min="3" max="3" width="26.26953125" style="7" customWidth="1"/>
     <col min="4" max="4" width="20.26953125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="12" style="26" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="12" style="25" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="27" customWidth="1"/>
     <col min="8" max="8" width="40.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -847,7 +878,7 @@
       <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="44" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="23" t="s">
@@ -871,13 +902,13 @@
       <c r="D2" s="19">
         <v>1</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="45">
         <v>44845</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="24">
         <v>0</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -895,13 +926,13 @@
       <c r="D3" s="19">
         <v>1</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="45">
         <v>44845</v>
       </c>
-      <c r="F3" s="25">
-        <v>1</v>
-      </c>
-      <c r="G3" s="27" t="s">
+      <c r="F3" s="24">
+        <v>1</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -919,13 +950,13 @@
       <c r="D4" s="19">
         <v>1</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="45">
         <v>44845</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <v>0</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="26" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -936,7 +967,7 @@
       <c r="A5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="38" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -945,13 +976,13 @@
       <c r="D5" s="19">
         <v>1</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="45">
         <v>44845</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>0</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="26" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -962,7 +993,7 @@
       <c r="A6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -971,13 +1002,13 @@
       <c r="D6" s="19">
         <v>1</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="45">
         <v>44845</v>
       </c>
-      <c r="F6" s="25">
-        <v>1</v>
-      </c>
-      <c r="G6" s="27" t="s">
+      <c r="F6" s="24">
+        <v>1</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -988,45 +1019,45 @@
       <c r="A7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="19">
         <v>1</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="45">
         <v>44845</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>0</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="26" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32">
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="46">
         <v>44876</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="31">
         <v>2</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="28" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1034,7 +1065,7 @@
       <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="36" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1043,13 +1074,13 @@
       <c r="D9" s="20">
         <v>1</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="45">
         <v>44876</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <v>0</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="26" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="21" t="s">
@@ -1067,13 +1098,13 @@
       <c r="D10" s="19">
         <v>1</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="45">
         <v>44906</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <v>0</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="26" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -1082,7 +1113,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="19"/>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="36" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1091,13 +1122,13 @@
       <c r="D11" s="19">
         <v>1</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="45">
         <v>44906</v>
       </c>
-      <c r="F11" s="25">
-        <v>1</v>
-      </c>
-      <c r="G11" s="27" t="s">
+      <c r="F11" s="24">
+        <v>1</v>
+      </c>
+      <c r="G11" s="26" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1108,7 +1139,7 @@
       <c r="A12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="36" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1117,22 +1148,22 @@
       <c r="D12" s="19">
         <v>1</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="45">
         <v>44906</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>2</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="36" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1141,35 +1172,35 @@
       <c r="D13" s="19">
         <v>1</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="45">
         <v>44906</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="24">
         <v>0</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="33" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="19"/>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="36" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="19">
         <v>1</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="45">
         <v>44906</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <v>0</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="26" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1185,13 +1216,13 @@
       <c r="D15" s="19">
         <v>1</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="45">
         <v>44906</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>0</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="26" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="8" t="s">
@@ -1199,16 +1230,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="19"/>
@@ -1219,13 +1250,13 @@
       <c r="D17" s="19">
         <v>1</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="45">
         <v>44906</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="24">
         <v>0</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="26" t="s">
         <v>7</v>
       </c>
       <c r="H17" s="8" t="s">
@@ -1241,13 +1272,13 @@
       <c r="D18" s="19">
         <v>1</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="45">
         <v>44906</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="24">
         <v>0</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="26" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -1263,13 +1294,13 @@
       <c r="D19" s="19">
         <v>1</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="45">
         <v>44906</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="24">
         <v>0</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="26" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -1285,13 +1316,13 @@
       <c r="D20" s="19">
         <v>1</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="24">
         <v>0</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="26" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -1309,13 +1340,13 @@
       <c r="D21" s="19">
         <v>1</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="24">
         <v>0</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="26" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -1333,13 +1364,13 @@
       <c r="D22" s="19">
         <v>1</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="25">
-        <v>1</v>
-      </c>
-      <c r="G22" s="27" t="s">
+      <c r="F22" s="24">
+        <v>1</v>
+      </c>
+      <c r="G22" s="26" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -1357,13 +1388,13 @@
       <c r="D23" s="19">
         <v>1</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="25">
-        <v>1</v>
-      </c>
-      <c r="G23" s="27" t="s">
+      <c r="F23" s="24">
+        <v>1</v>
+      </c>
+      <c r="G23" s="26" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -1381,13 +1412,13 @@
       <c r="D24" s="19">
         <v>1</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="25">
-        <v>1</v>
-      </c>
-      <c r="G24" s="27" t="s">
+      <c r="F24" s="24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="26" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -1405,13 +1436,13 @@
       <c r="D25" s="19">
         <v>1</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="25">
-        <v>1</v>
-      </c>
-      <c r="G25" s="27" t="s">
+      <c r="F25" s="24">
+        <v>1</v>
+      </c>
+      <c r="G25" s="26" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -1429,13 +1460,13 @@
       <c r="D26" s="19">
         <v>1</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="25">
-        <v>1</v>
-      </c>
-      <c r="G26" s="27" t="s">
+      <c r="F26" s="24">
+        <v>1</v>
+      </c>
+      <c r="G26" s="26" t="s">
         <v>13</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -1443,24 +1474,24 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="19"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="19">
-        <v>1</v>
-      </c>
-      <c r="E27" s="27" t="s">
+      <c r="D27" s="47">
+        <v>1</v>
+      </c>
+      <c r="E27" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="51">
         <v>2</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="1" t="s">
+      <c r="G27" s="50"/>
+      <c r="H27" s="52" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1473,29 +1504,51 @@
       <c r="D28" s="19">
         <v>1</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="1"/>
+      <c r="E28" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="24">
+        <v>1</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="19"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="1"/>
+      <c r="B29" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="19">
+        <v>1</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="24">
+        <v>2</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="19"/>
       <c r="B30" s="12"/>
       <c r="C30" s="5"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="27"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="26"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -1503,9 +1556,9 @@
       <c r="B31" s="12"/>
       <c r="C31" s="5"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="27"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -1513,9 +1566,9 @@
       <c r="B32" s="12"/>
       <c r="C32" s="5"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="27"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="26"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -1523,9 +1576,9 @@
       <c r="B33" s="12"/>
       <c r="C33" s="5"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="27"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="26"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -1533,9 +1586,9 @@
       <c r="B34" s="12"/>
       <c r="C34" s="5"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="27"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="26"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -1543,9 +1596,9 @@
       <c r="B35" s="12"/>
       <c r="C35" s="5"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="27"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="26"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -1553,9 +1606,9 @@
       <c r="B36" s="12"/>
       <c r="C36" s="5"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="27"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="26"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -1563,9 +1616,9 @@
       <c r="B37" s="12"/>
       <c r="C37" s="5"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="27"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="26"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -1573,9 +1626,9 @@
       <c r="B38" s="12"/>
       <c r="C38" s="5"/>
       <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="27"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="26"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -1583,9 +1636,9 @@
       <c r="B39" s="12"/>
       <c r="C39" s="5"/>
       <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="27"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="26"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -1593,9 +1646,9 @@
       <c r="B40" s="12"/>
       <c r="C40" s="5"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="27"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="26"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -1603,9 +1656,9 @@
       <c r="B41" s="12"/>
       <c r="C41" s="5"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="27"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="26"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -1613,9 +1666,9 @@
       <c r="B42" s="12"/>
       <c r="C42" s="5"/>
       <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="27"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="26"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -1623,9 +1676,9 @@
       <c r="B43" s="12"/>
       <c r="C43" s="5"/>
       <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="27"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="26"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -1633,9 +1686,9 @@
       <c r="B44" s="12"/>
       <c r="C44" s="5"/>
       <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="27"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="26"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -1643,9 +1696,9 @@
       <c r="B45" s="12"/>
       <c r="C45" s="5"/>
       <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="27"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="26"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -1653,9 +1706,9 @@
       <c r="B46" s="12"/>
       <c r="C46" s="5"/>
       <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="27"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="26"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -1663,9 +1716,9 @@
       <c r="B47" s="12"/>
       <c r="C47" s="5"/>
       <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="27"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="26"/>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -1673,9 +1726,9 @@
       <c r="B48" s="12"/>
       <c r="C48" s="5"/>
       <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="27"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="26"/>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -1683,9 +1736,9 @@
       <c r="B49" s="12"/>
       <c r="C49" s="5"/>
       <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="27"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="26"/>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
@@ -1693,9 +1746,9 @@
       <c r="B50" s="12"/>
       <c r="C50" s="5"/>
       <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="27"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="26"/>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -1703,9 +1756,9 @@
       <c r="B51" s="12"/>
       <c r="C51" s="5"/>
       <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="27"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="26"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -1713,9 +1766,9 @@
       <c r="B52" s="12"/>
       <c r="C52" s="5"/>
       <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="27"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="26"/>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -1723,9 +1776,9 @@
       <c r="B53" s="12"/>
       <c r="C53" s="5"/>
       <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="27"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="26"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -1733,9 +1786,9 @@
       <c r="B54" s="12"/>
       <c r="C54" s="5"/>
       <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="27"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="26"/>
       <c r="H54" s="1"/>
     </row>
   </sheetData>
@@ -1756,9 +1809,10 @@
     <hyperlink ref="C25" r:id="rId11" xr:uid="{91F1A24F-16E0-41DF-BDCA-DD9885716035}"/>
     <hyperlink ref="C26" r:id="rId12" xr:uid="{2614CDCD-FF3D-41E1-87FB-522C82AE1209}"/>
     <hyperlink ref="C27" r:id="rId13" xr:uid="{2CCA553C-55B2-430F-8F64-51C76D71C661}"/>
+    <hyperlink ref="C29" r:id="rId14" xr:uid="{1D27E564-3104-4EBA-9964-1C711053A73E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -1775,7 +1829,7 @@
   <cols>
     <col min="1" max="1" width="31.54296875" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.1796875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="37.81640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.81640625" style="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1796,7 +1850,7 @@
       <c r="B2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="40" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1807,7 +1861,7 @@
       <c r="B3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="40" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1818,7 +1872,7 @@
       <c r="B4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="40" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1829,7 +1883,7 @@
       <c r="B5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="43"/>
+      <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
@@ -1838,7 +1892,7 @@
       <c r="B6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="41"/>
     </row>
     <row r="7" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
@@ -1847,7 +1901,7 @@
       <c r="B7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="41"/>
     </row>
     <row r="8" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
@@ -1856,7 +1910,7 @@
       <c r="B8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="40" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1867,7 +1921,7 @@
       <c r="B9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="40" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1889,7 +1943,7 @@
       <c r="B11" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="40" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1900,127 +1954,127 @@
       <c r="B12" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="43"/>
+      <c r="C12" s="41"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="43"/>
+      <c r="C13" s="41"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="43"/>
+      <c r="C14" s="41"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="43"/>
+      <c r="C15" s="41"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="43"/>
+      <c r="C16" s="41"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="43"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="43"/>
+      <c r="C18" s="41"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="43"/>
+      <c r="C19" s="41"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="43"/>
+      <c r="C20" s="41"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="43"/>
+      <c r="C21" s="41"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="43"/>
+      <c r="C22" s="41"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="43"/>
+      <c r="C23" s="41"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="15"/>
-      <c r="C24" s="43"/>
+      <c r="C24" s="41"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="43"/>
+      <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="15"/>
-      <c r="C26" s="43"/>
+      <c r="C26" s="41"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="43"/>
+      <c r="C27" s="41"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="43"/>
+      <c r="C28" s="41"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="15"/>
-      <c r="C29" s="43"/>
+      <c r="C29" s="41"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="15"/>
-      <c r="C30" s="43"/>
+      <c r="C30" s="41"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="43"/>
+      <c r="C31" s="41"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="15"/>
-      <c r="C32" s="43"/>
+      <c r="C32" s="41"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="15"/>
-      <c r="C33" s="43"/>
+      <c r="C33" s="41"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="15"/>
-      <c r="C34" s="43"/>
+      <c r="C34" s="41"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="43"/>
+      <c r="C35" s="41"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="15"/>
-      <c r="C36" s="43"/>
+      <c r="C36" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F405ED5-03C9-4B22-AAA6-D10851D6C379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B92F09-2408-4D1A-97B2-185EF21822BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="86">
   <si>
     <t>Topic</t>
   </si>
@@ -283,6 +283,27 @@
   </si>
   <si>
     <t>Sort 0 1 2(Dutch national flag problem)</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Binary Search Algorithm</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Works on monotonic functions.</t>
+  </si>
+  <si>
+    <t>Binary Search mid formula</t>
+  </si>
+  <si>
+    <t>mid = start + (end-start) / 2</t>
+  </si>
+  <si>
+    <t>First and Last Position of an Element In Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -355,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -378,12 +399,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -503,9 +561,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -531,6 +586,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -848,15 +912,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DE015C-28F9-428F-8E3F-DA3063A7344F}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.08984375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="35.54296875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="44.90625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.26953125" style="7" customWidth="1"/>
     <col min="4" max="4" width="20.26953125" style="18" customWidth="1"/>
     <col min="5" max="5" width="16.08984375" style="27" customWidth="1"/>
@@ -878,7 +942,7 @@
       <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="23" t="s">
@@ -902,7 +966,7 @@
       <c r="D2" s="19">
         <v>1</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="44">
         <v>44845</v>
       </c>
       <c r="F2" s="24">
@@ -926,7 +990,7 @@
       <c r="D3" s="19">
         <v>1</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="44">
         <v>44845</v>
       </c>
       <c r="F3" s="24">
@@ -950,7 +1014,7 @@
       <c r="D4" s="19">
         <v>1</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="44">
         <v>44845</v>
       </c>
       <c r="F4" s="24">
@@ -976,7 +1040,7 @@
       <c r="D5" s="19">
         <v>1</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="44">
         <v>44845</v>
       </c>
       <c r="F5" s="24">
@@ -1002,7 +1066,7 @@
       <c r="D6" s="19">
         <v>1</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="44">
         <v>44845</v>
       </c>
       <c r="F6" s="24">
@@ -1026,7 +1090,7 @@
       <c r="D7" s="19">
         <v>1</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="44">
         <v>44845</v>
       </c>
       <c r="F7" s="24">
@@ -1048,7 +1112,7 @@
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="30"/>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <v>44876</v>
       </c>
       <c r="F8" s="31">
@@ -1074,7 +1138,7 @@
       <c r="D9" s="20">
         <v>1</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="44">
         <v>44876</v>
       </c>
       <c r="F9" s="24">
@@ -1098,7 +1162,7 @@
       <c r="D10" s="19">
         <v>1</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="44">
         <v>44906</v>
       </c>
       <c r="F10" s="24">
@@ -1122,7 +1186,7 @@
       <c r="D11" s="19">
         <v>1</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="44">
         <v>44906</v>
       </c>
       <c r="F11" s="24">
@@ -1148,7 +1212,7 @@
       <c r="D12" s="19">
         <v>1</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="44">
         <v>44906</v>
       </c>
       <c r="F12" s="24">
@@ -1172,7 +1236,7 @@
       <c r="D13" s="19">
         <v>1</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="44">
         <v>44906</v>
       </c>
       <c r="F13" s="24">
@@ -1194,7 +1258,7 @@
       <c r="D14" s="19">
         <v>1</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="44">
         <v>44906</v>
       </c>
       <c r="F14" s="24">
@@ -1216,7 +1280,7 @@
       <c r="D15" s="19">
         <v>1</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="44">
         <v>44906</v>
       </c>
       <c r="F15" s="24">
@@ -1230,16 +1294,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="19"/>
@@ -1250,7 +1314,7 @@
       <c r="D17" s="19">
         <v>1</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="44">
         <v>44906</v>
       </c>
       <c r="F17" s="24">
@@ -1272,7 +1336,7 @@
       <c r="D18" s="19">
         <v>1</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="44">
         <v>44906</v>
       </c>
       <c r="F18" s="24">
@@ -1294,7 +1358,7 @@
       <c r="D19" s="19">
         <v>1</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="44">
         <v>44906</v>
       </c>
       <c r="F19" s="24">
@@ -1474,24 +1538,24 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48" t="s">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="47">
-        <v>1</v>
-      </c>
-      <c r="E27" s="50" t="s">
+      <c r="D27" s="46">
+        <v>1</v>
+      </c>
+      <c r="E27" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="51">
+      <c r="F27" s="50">
         <v>2</v>
       </c>
-      <c r="G27" s="50"/>
-      <c r="H27" s="52" t="s">
+      <c r="G27" s="49"/>
+      <c r="H27" s="51" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1542,30 +1606,50 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="19"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="1"/>
+      <c r="A30" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="54"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="19"/>
-      <c r="B31" s="12"/>
+      <c r="B31" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="1"/>
+      <c r="D31" s="19">
+        <v>1</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="24">
+        <v>0</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="19"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="19"/>
+      <c r="B32" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="19">
+        <v>1</v>
+      </c>
       <c r="E32" s="26"/>
       <c r="F32" s="24"/>
       <c r="G32" s="26"/>
@@ -1792,8 +1876,9 @@
       <c r="H54" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A30:H30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{6A12171F-B82B-4AFA-AD02-AF70AA0770D0}"/>
@@ -1810,9 +1895,10 @@
     <hyperlink ref="C26" r:id="rId12" xr:uid="{2614CDCD-FF3D-41E1-87FB-522C82AE1209}"/>
     <hyperlink ref="C27" r:id="rId13" xr:uid="{2CCA553C-55B2-430F-8F64-51C76D71C661}"/>
     <hyperlink ref="C29" r:id="rId14" xr:uid="{1D27E564-3104-4EBA-9964-1C711053A73E}"/>
+    <hyperlink ref="C32" r:id="rId15" xr:uid="{3C218F7B-3780-4C42-9CF8-D7A9901DACDC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -1821,8 +1907,8 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1957,13 +2043,21 @@
       <c r="C12" s="41"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="C13" s="41"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="C14" s="41"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B92F09-2408-4D1A-97B2-185EF21822BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A575CE-9E98-47B4-A3DD-94D2CB301A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="86">
   <si>
     <t>Topic</t>
   </si>
@@ -913,8 +913,8 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1650,10 +1650,18 @@
       <c r="D32" s="19">
         <v>1</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="1"/>
+      <c r="E32" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="24">
+        <v>2</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="19"/>

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A575CE-9E98-47B4-A3DD-94D2CB301A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F9B4E6-51D1-473D-9497-737DE4DE29A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="89">
   <si>
     <t>Topic</t>
   </si>
@@ -304,6 +304,15 @@
   </si>
   <si>
     <t>First and Last Position of an Element In Sorted Array</t>
+  </si>
+  <si>
+    <t>Total number of Occurance</t>
+  </si>
+  <si>
+    <t>Same as above question. Just substract last minus first.</t>
+  </si>
+  <si>
+    <t>852. Peak Index in a Mountain Array</t>
   </si>
 </sst>
 </file>
@@ -914,7 +923,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1665,23 +1674,41 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="19"/>
-      <c r="B33" s="12"/>
+      <c r="B33" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="C33" s="5"/>
       <c r="D33" s="19"/>
       <c r="E33" s="26"/>
       <c r="F33" s="24"/>
       <c r="G33" s="26"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="19"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="1"/>
+      <c r="B34" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="19">
+        <v>1</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="24">
+        <v>3</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="19"/>
@@ -1904,9 +1931,10 @@
     <hyperlink ref="C27" r:id="rId13" xr:uid="{2CCA553C-55B2-430F-8F64-51C76D71C661}"/>
     <hyperlink ref="C29" r:id="rId14" xr:uid="{1D27E564-3104-4EBA-9964-1C711053A73E}"/>
     <hyperlink ref="C32" r:id="rId15" xr:uid="{3C218F7B-3780-4C42-9CF8-D7A9901DACDC}"/>
+    <hyperlink ref="C34" r:id="rId16" xr:uid="{71FBEA5B-310F-4E94-8592-384E6BE3CBD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F9B4E6-51D1-473D-9497-737DE4DE29A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF56492-08E9-4FEE-9A25-83DA6EE9B2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
   <si>
     <t>Topic</t>
   </si>
@@ -313,6 +313,12 @@
   </si>
   <si>
     <t>852. Peak Index in a Mountain Array</t>
+  </si>
+  <si>
+    <t>Pivot in an Array</t>
+  </si>
+  <si>
+    <t>15/11/2022</t>
   </si>
 </sst>
 </file>
@@ -923,7 +929,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1712,13 +1718,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="19"/>
-      <c r="B35" s="12"/>
+      <c r="B35" s="12" t="s">
+        <v>89</v>
+      </c>
       <c r="C35" s="5"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="1"/>
+      <c r="D35" s="19">
+        <v>1</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="24">
+        <v>2</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="19"/>

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF56492-08E9-4FEE-9A25-83DA6EE9B2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94319AC1-BF61-46A1-A1C3-DD51D991A6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="98">
   <si>
     <t>Topic</t>
   </si>
@@ -319,6 +319,28 @@
   </si>
   <si>
     <t>15/11/2022</t>
+  </si>
+  <si>
+    <t>Pivot Question</t>
+  </si>
+  <si>
+    <t>If arr[0] &lt;= arr[mid] -&gt; this indicates mid is on first line
+elsemid is on the second line</t>
+  </si>
+  <si>
+    <t>Search In Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>69. Sqrt(x)</t>
+  </si>
+  <si>
+    <t>SQRT with precision</t>
+  </si>
+  <si>
+    <t>15/11.2022</t>
+  </si>
+  <si>
+    <t>Allocate Books</t>
   </si>
 </sst>
 </file>
@@ -928,8 +950,8 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1740,42 +1762,90 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="19"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="1"/>
+      <c r="B36" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="19">
+        <v>1</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="24">
+        <v>3</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="19"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="26"/>
+      <c r="B37" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="19">
+        <v>1</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="24">
+        <v>1</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="19"/>
-      <c r="B38" s="12"/>
+      <c r="B38" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="C38" s="5"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="26"/>
+      <c r="D38" s="19">
+        <v>1</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="24">
+        <v>1</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="19"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="26"/>
+      <c r="B39" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="19">
+        <v>1</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="24">
+        <v>4</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -1950,9 +2020,12 @@
     <hyperlink ref="C29" r:id="rId14" xr:uid="{1D27E564-3104-4EBA-9964-1C711053A73E}"/>
     <hyperlink ref="C32" r:id="rId15" xr:uid="{3C218F7B-3780-4C42-9CF8-D7A9901DACDC}"/>
     <hyperlink ref="C34" r:id="rId16" xr:uid="{71FBEA5B-310F-4E94-8592-384E6BE3CBD6}"/>
+    <hyperlink ref="C36" r:id="rId17" xr:uid="{40D06165-76E3-4012-B363-E835CE7CA8F9}"/>
+    <hyperlink ref="C37" r:id="rId18" xr:uid="{A18B5A97-4FB9-4F46-BC77-FD667A83A45B}"/>
+    <hyperlink ref="C39" r:id="rId19" xr:uid="{9762235F-D464-463C-ABF4-06C1B720F72C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -1962,7 +2035,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2114,9 +2187,13 @@
       </c>
       <c r="C14" s="41"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
-      <c r="B15" s="15"/>
+    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="C15" s="41"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94319AC1-BF61-46A1-A1C3-DD51D991A6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28575971-0B26-4692-AD78-23F85506FA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -951,7 +951,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28575971-0B26-4692-AD78-23F85506FA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC904A4-2A08-44FC-9C1A-8BB5077E91B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="101">
   <si>
     <t>Topic</t>
   </si>
@@ -337,10 +337,19 @@
     <t>SQRT with precision</t>
   </si>
   <si>
-    <t>15/11.2022</t>
-  </si>
-  <si>
     <t>Allocate Books</t>
+  </si>
+  <si>
+    <t>Painter's Partition Problem</t>
+  </si>
+  <si>
+    <t>16/11/2022</t>
+  </si>
+  <si>
+    <t>Same as book allocation problem</t>
+  </si>
+  <si>
+    <t>Aggressive Cows</t>
   </si>
 </sst>
 </file>
@@ -950,8 +959,8 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1796,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F37" s="24">
         <v>1</v>
@@ -1816,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F38" s="24">
         <v>1</v>
@@ -1829,7 +1838,7 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="19"/>
       <c r="B39" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>65</v>
@@ -1838,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F39" s="24">
         <v>4</v>
@@ -1850,22 +1859,48 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="19"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="1"/>
+      <c r="B40" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="19">
+        <v>1</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="24">
+        <v>4</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="19"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="26"/>
+      <c r="B41" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="19">
+        <v>1</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="24">
+        <v>4</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -2023,9 +2058,11 @@
     <hyperlink ref="C36" r:id="rId17" xr:uid="{40D06165-76E3-4012-B363-E835CE7CA8F9}"/>
     <hyperlink ref="C37" r:id="rId18" xr:uid="{A18B5A97-4FB9-4F46-BC77-FD667A83A45B}"/>
     <hyperlink ref="C39" r:id="rId19" xr:uid="{9762235F-D464-463C-ABF4-06C1B720F72C}"/>
+    <hyperlink ref="C40" r:id="rId20" xr:uid="{2D2C81B5-1B13-45F9-A833-3151D95C804D}"/>
+    <hyperlink ref="C41" r:id="rId21" xr:uid="{6778B2A9-B4BA-47D1-92FF-474BB9FF05C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC904A4-2A08-44FC-9C1A-8BB5077E91B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BAEF00-AC23-46B5-988A-2778E9E00304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="Concepts to remeber" sheetId="2" r:id="rId2"/>
+    <sheet name="Time Complexity" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Leetcode">'Questions Tracker'!$C$5</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="110">
   <si>
     <t>Topic</t>
   </si>
@@ -350,6 +351,36 @@
   </si>
   <si>
     <t>Aggressive Cows</t>
+  </si>
+  <si>
+    <t>Sorting Algorithm</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
+  </si>
+  <si>
+    <t>selectionsort</t>
+  </si>
+  <si>
+    <t>17/11/2022</t>
+  </si>
+  <si>
+    <t>Algorithm Name</t>
+  </si>
+  <si>
+    <t>1) Works good in small size array/linked list/vector</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t>Best Case time complexity: O(n^2)
+Worst case time complexity: O(n^2)
+Time Complextiy: O(1)
+Unstable Algorithm</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
   </si>
 </sst>
 </file>
@@ -487,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,6 +671,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -959,8 +993,8 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1904,28 +1938,46 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="19"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="1"/>
+      <c r="A42" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="54"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="19"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="1"/>
+      <c r="B43" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="19">
+        <v>1</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" s="24">
+        <v>0</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="19"/>
-      <c r="B44" s="12"/>
+      <c r="B44" s="12" t="s">
+        <v>109</v>
+      </c>
       <c r="C44" s="5"/>
       <c r="D44" s="19"/>
       <c r="E44" s="26"/>
@@ -2034,9 +2086,10 @@
       <c r="H54" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A42:H42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{6A12171F-B82B-4AFA-AD02-AF70AA0770D0}"/>
@@ -2060,9 +2113,10 @@
     <hyperlink ref="C39" r:id="rId19" xr:uid="{9762235F-D464-463C-ABF4-06C1B720F72C}"/>
     <hyperlink ref="C40" r:id="rId20" xr:uid="{2D2C81B5-1B13-45F9-A833-3151D95C804D}"/>
     <hyperlink ref="C41" r:id="rId21" xr:uid="{6778B2A9-B4BA-47D1-92FF-474BB9FF05C3}"/>
+    <hyperlink ref="C43" r:id="rId22" xr:uid="{1DFBFA0B-D03F-488C-9827-71A30DE7F2A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -2072,7 +2126,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2352,4 +2406,127 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C3186E-FBF1-47DA-BF72-1BE79B38334C}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.08984375" customWidth="1"/>
+    <col min="2" max="2" width="79.08984375" customWidth="1"/>
+    <col min="3" max="3" width="43.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BAEF00-AC23-46B5-988A-2778E9E00304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66627DD9-58F7-43A2-A62C-538ABCF0AB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions Tracker" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="114">
   <si>
     <t>Topic</t>
   </si>
@@ -381,6 +381,22 @@
   </si>
   <si>
     <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>18/11/2022</t>
+  </si>
+  <si>
+    <t>Best Case time complexity: O(n)
+Worst case time complexity: O(n^2)
+Time Complextiy: O(1)
+Stable Algorithm</t>
+  </si>
+  <si>
+    <t>Insertion Sort</t>
+  </si>
+  <si>
+    <t>1) Adaptive algorithm
+2) Works good in small size array/linked list/vector</t>
   </si>
 </sst>
 </file>
@@ -663,6 +679,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -671,9 +690,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -992,9 +1008,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DE015C-28F9-428F-8E3F-DA3063A7344F}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1374,16 +1390,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="55"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="19"/>
@@ -1686,16 +1702,16 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="55"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="19"/>
@@ -1938,16 +1954,16 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="54"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="55"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="19"/>
@@ -1978,22 +1994,46 @@
       <c r="B44" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="1"/>
+      <c r="C44" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="19">
+        <v>1</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" s="24">
+        <v>0</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="19"/>
-      <c r="B45" s="12"/>
+      <c r="B45" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="1"/>
+      <c r="D45" s="19">
+        <v>1</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F45" s="24">
+        <v>1</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="19"/>
@@ -2114,9 +2154,10 @@
     <hyperlink ref="C40" r:id="rId20" xr:uid="{2D2C81B5-1B13-45F9-A833-3151D95C804D}"/>
     <hyperlink ref="C41" r:id="rId21" xr:uid="{6778B2A9-B4BA-47D1-92FF-474BB9FF05C3}"/>
     <hyperlink ref="C43" r:id="rId22" xr:uid="{1DFBFA0B-D03F-488C-9827-71A30DE7F2A3}"/>
+    <hyperlink ref="C44" r:id="rId23" xr:uid="{E03520FC-CE99-4597-958B-42471146454F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -2412,19 +2453,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C3186E-FBF1-47DA-BF72-1BE79B38334C}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.08984375" customWidth="1"/>
+    <col min="1" max="1" width="35.08984375" style="42" customWidth="1"/>
     <col min="2" max="2" width="79.08984375" customWidth="1"/>
-    <col min="3" max="3" width="43.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.453125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B1" s="16" t="s">
@@ -2435,95 +2476,105 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    <row r="3" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66627DD9-58F7-43A2-A62C-538ABCF0AB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650437D5-3942-474A-816B-6FBC4793A8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions Tracker" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="116">
   <si>
     <t>Topic</t>
   </si>
@@ -397,6 +397,12 @@
   <si>
     <t>1) Adaptive algorithm
 2) Works good in small size array/linked list/vector</t>
+  </si>
+  <si>
+    <t>Reverse The Array</t>
+  </si>
+  <si>
+    <t>88. Merge Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -1008,9 +1014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DE015C-28F9-428F-8E3F-DA3063A7344F}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2037,22 +2043,48 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="19"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="1"/>
+      <c r="B46" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="19">
+        <v>1</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" s="24">
+        <v>0</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="19"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="26"/>
+      <c r="B47" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="19">
+        <v>1</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="24">
+        <v>2</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -2155,9 +2187,11 @@
     <hyperlink ref="C41" r:id="rId21" xr:uid="{6778B2A9-B4BA-47D1-92FF-474BB9FF05C3}"/>
     <hyperlink ref="C43" r:id="rId22" xr:uid="{1DFBFA0B-D03F-488C-9827-71A30DE7F2A3}"/>
     <hyperlink ref="C44" r:id="rId23" xr:uid="{E03520FC-CE99-4597-958B-42471146454F}"/>
+    <hyperlink ref="C46" r:id="rId24" xr:uid="{F78F4698-FE61-4CA0-9D59-C973FC8A2A20}"/>
+    <hyperlink ref="C47" r:id="rId25" xr:uid="{D2FAC6DE-7BC3-4AB7-9594-0198FBCAF4B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -2453,7 +2487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C3186E-FBF1-47DA-BF72-1BE79B38334C}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650437D5-3942-474A-816B-6FBC4793A8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951B1B39-F1C4-4DFE-A23B-B0B93A895945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="118">
   <si>
     <t>Topic</t>
   </si>
@@ -403,6 +403,12 @@
   </si>
   <si>
     <t>88. Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>283. Move Zeroes</t>
+  </si>
+  <si>
+    <t>19/11/2022</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1022,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2089,12 +2095,24 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="19"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="26"/>
+      <c r="B48" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="19">
+        <v>1</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" s="24">
+        <v>1</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -2189,9 +2207,10 @@
     <hyperlink ref="C44" r:id="rId23" xr:uid="{E03520FC-CE99-4597-958B-42471146454F}"/>
     <hyperlink ref="C46" r:id="rId24" xr:uid="{F78F4698-FE61-4CA0-9D59-C973FC8A2A20}"/>
     <hyperlink ref="C47" r:id="rId25" xr:uid="{D2FAC6DE-7BC3-4AB7-9594-0198FBCAF4B2}"/>
+    <hyperlink ref="C48" r:id="rId26" xr:uid="{81577813-0AA5-44F1-97E3-0EF57EB1F430}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951B1B39-F1C4-4DFE-A23B-B0B93A895945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E9B713-6CC7-4F4D-A814-A85BC48C2933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions Tracker" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="123">
   <si>
     <t>Topic</t>
   </si>
@@ -409,6 +409,23 @@
   </si>
   <si>
     <t>19/11/2022</t>
+  </si>
+  <si>
+    <t>189. Rotate Array</t>
+  </si>
+  <si>
+    <t>number%10</t>
+  </si>
+  <si>
+    <t>Any number%10 always lies in range of [0 to 9].
+Concept used in Rotation of Array question.</t>
+  </si>
+  <si>
+    <t>arr[(i+k) % n] = arr[i]</t>
+  </si>
+  <si>
+    <t>Ye formula cyclic way me K position se shift kr dega ith term ko.
+Used in rotation array question.</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DE015C-28F9-428F-8E3F-DA3063A7344F}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
@@ -1030,10 +1047,10 @@
     <col min="1" max="1" width="19.08984375" style="18" customWidth="1"/>
     <col min="2" max="2" width="44.90625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.26953125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.08984375" style="27" customWidth="1"/>
     <col min="6" max="6" width="12" style="25" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="22.36328125" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2117,10 +2134,18 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="19"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="26"/>
+      <c r="B49" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="19">
+        <v>1</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>117</v>
+      </c>
       <c r="F49" s="24"/>
       <c r="G49" s="26"/>
       <c r="H49" s="1"/>
@@ -2208,9 +2233,10 @@
     <hyperlink ref="C46" r:id="rId24" xr:uid="{F78F4698-FE61-4CA0-9D59-C973FC8A2A20}"/>
     <hyperlink ref="C47" r:id="rId25" xr:uid="{D2FAC6DE-7BC3-4AB7-9594-0198FBCAF4B2}"/>
     <hyperlink ref="C48" r:id="rId26" xr:uid="{81577813-0AA5-44F1-97E3-0EF57EB1F430}"/>
+    <hyperlink ref="C49" r:id="rId27" xr:uid="{88E7C87E-B181-4FA3-9CFC-EA9B470BB298}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -2218,9 +2244,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E97AED2-646B-4C74-8BF8-BADCE88819AE}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2381,14 +2407,22 @@
       </c>
       <c r="C15" s="41"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
-      <c r="B16" s="15"/>
+    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="C16" s="41"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
-      <c r="B17" s="15"/>
+    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E9B713-6CC7-4F4D-A814-A85BC48C2933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FFCBF3-9A82-40E9-A711-13191F4F52CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions Tracker" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="126">
   <si>
     <t>Topic</t>
   </si>
@@ -426,6 +426,15 @@
   <si>
     <t>Ye formula cyclic way me K position se shift kr dega ith term ko.
 Used in rotation array question.</t>
+  </si>
+  <si>
+    <t>1752. Check if Array Is Sorted and Rotated</t>
+  </si>
+  <si>
+    <t>Used the concept of modules to make array iteration circular.See formula in Concepts to remember tab.</t>
+  </si>
+  <si>
+    <t>Used the concept that in sorted and roatated array ont one element is greater than the last element.</t>
   </si>
 </sst>
 </file>
@@ -563,16 +572,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -584,7 +587,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -621,9 +623,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -642,7 +641,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -707,7 +705,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -719,6 +716,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1037,1168 +1037,1188 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DE015C-28F9-428F-8E3F-DA3063A7344F}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="44.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.26953125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" style="27" customWidth="1"/>
-    <col min="6" max="6" width="12" style="25" customWidth="1"/>
-    <col min="7" max="7" width="22.36328125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="44.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.26953125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="12" style="21" customWidth="1"/>
+    <col min="7" max="7" width="22.36328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.36328125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="19">
-        <v>1</v>
-      </c>
-      <c r="E2" s="44">
+      <c r="C2" s="3"/>
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+      <c r="E2" s="39">
         <v>44845</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="20">
         <v>0</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="19">
-        <v>1</v>
-      </c>
-      <c r="E3" s="44">
+      <c r="C3" s="3"/>
+      <c r="D3" s="16">
+        <v>1</v>
+      </c>
+      <c r="E3" s="39">
         <v>44845</v>
       </c>
-      <c r="F3" s="24">
-        <v>1</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="20">
+        <v>1</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="19">
-        <v>1</v>
-      </c>
-      <c r="E4" s="44">
+      <c r="C4" s="3"/>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="39">
         <v>44845</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="20">
         <v>0</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="19">
-        <v>1</v>
-      </c>
-      <c r="E5" s="44">
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="39">
         <v>44845</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="20">
         <v>0</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19">
-        <v>1</v>
-      </c>
-      <c r="E6" s="44">
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="39">
         <v>44845</v>
       </c>
-      <c r="F6" s="24">
-        <v>1</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="F6" s="20">
+        <v>1</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="19">
-        <v>1</v>
-      </c>
-      <c r="E7" s="44">
+      <c r="C7" s="3"/>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="39">
         <v>44845</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="20">
         <v>0</v>
       </c>
-      <c r="G7" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="45">
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="40">
         <v>44876</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="26">
         <v>2</v>
       </c>
-      <c r="G8" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="28" t="s">
+      <c r="G8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="20">
-        <v>1</v>
-      </c>
-      <c r="E9" s="44">
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="39">
         <v>44876</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="20">
         <v>0</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="21" t="s">
+      <c r="G9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="50" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="19">
-        <v>1</v>
-      </c>
-      <c r="E10" s="44">
+      <c r="C10" s="3"/>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="39">
         <v>44906</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="20">
         <v>0</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="50" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="19">
-        <v>1</v>
-      </c>
-      <c r="E11" s="44">
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="39">
         <v>44906</v>
       </c>
-      <c r="F11" s="24">
-        <v>1</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="F11" s="20">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="19">
-        <v>1</v>
-      </c>
-      <c r="E12" s="44">
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="39">
         <v>44906</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="20">
         <v>2</v>
       </c>
-      <c r="G12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="33" t="s">
+      <c r="G12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
-      <c r="B13" s="36" t="s">
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
+      <c r="B13" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
-      <c r="E13" s="44">
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+      <c r="E13" s="39">
         <v>44906</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="20">
         <v>0</v>
       </c>
-      <c r="G13" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="33" t="s">
+      <c r="G13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="46" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
-      <c r="B14" s="36" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="19">
-        <v>1</v>
-      </c>
-      <c r="E14" s="44">
+      <c r="C14" s="3"/>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="39">
         <v>44906</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="20">
         <v>0</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="19">
-        <v>1</v>
-      </c>
-      <c r="E15" s="44">
+      <c r="C15" s="3"/>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="39">
         <v>44906</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="20">
         <v>0</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="55"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="49"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="19">
-        <v>1</v>
-      </c>
-      <c r="E17" s="44">
+      <c r="C17" s="3"/>
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="E17" s="39">
         <v>44906</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="20">
         <v>0</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="19"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="19">
-        <v>1</v>
-      </c>
-      <c r="E18" s="44">
+      <c r="C18" s="3"/>
+      <c r="D18" s="16">
+        <v>1</v>
+      </c>
+      <c r="E18" s="39">
         <v>44906</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="20">
         <v>0</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="44">
+      <c r="C19" s="3"/>
+      <c r="D19" s="16">
+        <v>1</v>
+      </c>
+      <c r="E19" s="39">
         <v>44906</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="20">
         <v>0</v>
       </c>
-      <c r="G19" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="G19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="19"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="19">
-        <v>1</v>
-      </c>
-      <c r="E20" s="26" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="16">
+        <v>1</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="20">
         <v>0</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="19"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="19">
-        <v>1</v>
-      </c>
-      <c r="E21" s="26" t="s">
+      <c r="D21" s="16">
+        <v>1</v>
+      </c>
+      <c r="E21" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="20">
         <v>0</v>
       </c>
-      <c r="G21" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="G21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="19"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="19">
-        <v>1</v>
-      </c>
-      <c r="E22" s="26" t="s">
+      <c r="D22" s="16">
+        <v>1</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="24">
-        <v>1</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="F22" s="20">
+        <v>1</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="19"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="19">
-        <v>1</v>
-      </c>
-      <c r="E23" s="26" t="s">
+      <c r="D23" s="16">
+        <v>1</v>
+      </c>
+      <c r="E23" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="24">
-        <v>1</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="F23" s="20">
+        <v>1</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="19"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="19">
-        <v>1</v>
-      </c>
-      <c r="E24" s="26" t="s">
+      <c r="D24" s="16">
+        <v>1</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="24">
-        <v>1</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="F24" s="20">
+        <v>1</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="19"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="19">
-        <v>1</v>
-      </c>
-      <c r="E25" s="26" t="s">
+      <c r="D25" s="16">
+        <v>1</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="24">
-        <v>1</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="F25" s="20">
+        <v>1</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="19"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="19">
-        <v>1</v>
-      </c>
-      <c r="E26" s="26" t="s">
+      <c r="D26" s="16">
+        <v>1</v>
+      </c>
+      <c r="E26" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="24">
-        <v>1</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="F26" s="20">
+        <v>1</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47" t="s">
+      <c r="A27" s="41"/>
+      <c r="B27" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="46">
-        <v>1</v>
-      </c>
-      <c r="E27" s="49" t="s">
+      <c r="D27" s="41">
+        <v>1</v>
+      </c>
+      <c r="E27" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="50">
+      <c r="F27" s="45">
         <v>2</v>
       </c>
-      <c r="G27" s="49"/>
-      <c r="H27" s="51" t="s">
+      <c r="G27" s="44"/>
+      <c r="H27" s="41" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="19"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="19">
-        <v>1</v>
-      </c>
-      <c r="E28" s="26" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="16">
+        <v>1</v>
+      </c>
+      <c r="E28" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="24">
-        <v>1</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="F28" s="20">
+        <v>1</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="19"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="19">
-        <v>1</v>
-      </c>
-      <c r="E29" s="26" t="s">
+      <c r="D29" s="16">
+        <v>1</v>
+      </c>
+      <c r="E29" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="20">
         <v>2</v>
       </c>
-      <c r="G29" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="G29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="55"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="49"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="19"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="19">
-        <v>1</v>
-      </c>
-      <c r="E31" s="26" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="16">
+        <v>1</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="20">
         <v>0</v>
       </c>
-      <c r="G31" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="G31" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="19"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="19">
-        <v>1</v>
-      </c>
-      <c r="E32" s="26" t="s">
+      <c r="D32" s="16">
+        <v>1</v>
+      </c>
+      <c r="E32" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="20">
         <v>2</v>
       </c>
-      <c r="G32" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="G32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="19"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="1" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="19"/>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="19">
-        <v>1</v>
-      </c>
-      <c r="E34" s="26" t="s">
+      <c r="D34" s="16">
+        <v>1</v>
+      </c>
+      <c r="E34" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="20">
         <v>3</v>
       </c>
-      <c r="G34" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="G34" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="19"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="19">
-        <v>1</v>
-      </c>
-      <c r="E35" s="26" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="16">
+        <v>1</v>
+      </c>
+      <c r="E35" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="20">
         <v>2</v>
       </c>
-      <c r="G35" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="G35" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="19"/>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="16"/>
+      <c r="B36" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="19">
-        <v>1</v>
-      </c>
-      <c r="E36" s="26" t="s">
+      <c r="D36" s="16">
+        <v>1</v>
+      </c>
+      <c r="E36" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="20">
         <v>3</v>
       </c>
-      <c r="G36" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="G36" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="19"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="19">
-        <v>1</v>
-      </c>
-      <c r="E37" s="26" t="s">
+      <c r="D37" s="16">
+        <v>1</v>
+      </c>
+      <c r="E37" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="24">
-        <v>1</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="1"/>
+      <c r="F37" s="20">
+        <v>1</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="19"/>
-      <c r="B38" s="12" t="s">
+      <c r="A38" s="16"/>
+      <c r="B38" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="19">
-        <v>1</v>
-      </c>
-      <c r="E38" s="26" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="16">
+        <v>1</v>
+      </c>
+      <c r="E38" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="24">
-        <v>1</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="1"/>
+      <c r="F38" s="20">
+        <v>1</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="19"/>
-      <c r="B39" s="12" t="s">
+      <c r="A39" s="16"/>
+      <c r="B39" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="19">
-        <v>1</v>
-      </c>
-      <c r="E39" s="26" t="s">
+      <c r="D39" s="16">
+        <v>1</v>
+      </c>
+      <c r="E39" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="20">
         <v>4</v>
       </c>
-      <c r="G39" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="1"/>
+      <c r="G39" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="19"/>
-      <c r="B40" s="12" t="s">
+      <c r="A40" s="16"/>
+      <c r="B40" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="19">
-        <v>1</v>
-      </c>
-      <c r="E40" s="26" t="s">
+      <c r="D40" s="16">
+        <v>1</v>
+      </c>
+      <c r="E40" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="20">
         <v>4</v>
       </c>
-      <c r="G40" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="1" t="s">
+      <c r="G40" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="19"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="19">
-        <v>1</v>
-      </c>
-      <c r="E41" s="26" t="s">
+      <c r="D41" s="16">
+        <v>1</v>
+      </c>
+      <c r="E41" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="20">
         <v>4</v>
       </c>
-      <c r="G41" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="1"/>
+      <c r="G41" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="55"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="49"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="19"/>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="16"/>
+      <c r="B43" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="19">
-        <v>1</v>
-      </c>
-      <c r="E43" s="26" t="s">
+      <c r="D43" s="16">
+        <v>1</v>
+      </c>
+      <c r="E43" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="20">
         <v>0</v>
       </c>
-      <c r="G43" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="G43" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="19"/>
-      <c r="B44" s="12" t="s">
+      <c r="A44" s="16"/>
+      <c r="B44" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="19">
-        <v>1</v>
-      </c>
-      <c r="E44" s="26" t="s">
+      <c r="D44" s="16">
+        <v>1</v>
+      </c>
+      <c r="E44" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="20">
         <v>0</v>
       </c>
-      <c r="G44" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="1" t="s">
+      <c r="G44" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="19"/>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="16"/>
+      <c r="B45" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="19">
-        <v>1</v>
-      </c>
-      <c r="E45" s="26" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="16">
+        <v>1</v>
+      </c>
+      <c r="E45" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F45" s="24">
-        <v>1</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="1" t="s">
+      <c r="F45" s="20">
+        <v>1</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="19"/>
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="16"/>
+      <c r="B46" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="19">
-        <v>1</v>
-      </c>
-      <c r="E46" s="26" t="s">
+      <c r="D46" s="16">
+        <v>1</v>
+      </c>
+      <c r="E46" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="20">
         <v>0</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="G46" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="19"/>
-      <c r="B47" s="12" t="s">
+      <c r="A47" s="16"/>
+      <c r="B47" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="19">
-        <v>1</v>
-      </c>
-      <c r="E47" s="26" t="s">
+      <c r="D47" s="16">
+        <v>1</v>
+      </c>
+      <c r="E47" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="20">
         <v>2</v>
       </c>
-      <c r="G47" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="1"/>
+      <c r="G47" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="16"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="19"/>
-      <c r="B48" s="12" t="s">
+      <c r="A48" s="16"/>
+      <c r="B48" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="19">
-        <v>1</v>
-      </c>
-      <c r="E48" s="26" t="s">
+      <c r="D48" s="16">
+        <v>1</v>
+      </c>
+      <c r="E48" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F48" s="24">
-        <v>1</v>
-      </c>
-      <c r="G48" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="19"/>
-      <c r="B49" s="12" t="s">
+      <c r="F48" s="20">
+        <v>1</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="16"/>
+    </row>
+    <row r="49" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="16"/>
+      <c r="B49" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="19">
-        <v>1</v>
-      </c>
-      <c r="E49" s="26" t="s">
+      <c r="D49" s="16">
+        <v>1</v>
+      </c>
+      <c r="E49" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F49" s="24"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="19"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="1"/>
+      <c r="F49" s="20">
+        <v>3</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A50" s="16"/>
+      <c r="B50" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="16">
+        <v>1</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F50" s="20">
+        <v>1</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="46" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="19"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="1"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="16"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="19"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="1"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="16"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="19"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="1"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="16"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="19"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="1"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2234,9 +2254,10 @@
     <hyperlink ref="C47" r:id="rId25" xr:uid="{D2FAC6DE-7BC3-4AB7-9594-0198FBCAF4B2}"/>
     <hyperlink ref="C48" r:id="rId26" xr:uid="{81577813-0AA5-44F1-97E3-0EF57EB1F430}"/>
     <hyperlink ref="C49" r:id="rId27" xr:uid="{88E7C87E-B181-4FA3-9CFC-EA9B470BB298}"/>
+    <hyperlink ref="C50" r:id="rId28" xr:uid="{4A58C32C-BA57-4C6A-AC42-CD75F7626422}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 
@@ -2244,281 +2265,281 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E97AED2-646B-4C74-8BF8-BADCE88819AE}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.1796875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="37.81640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.1796875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.81640625" style="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="59" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="36"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="41"/>
+      <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="41"/>
+      <c r="C7" s="36"/>
     </row>
     <row r="8" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="35" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="36"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="36"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="41"/>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="36"/>
     </row>
     <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="41"/>
+      <c r="C16" s="36"/>
     </row>
     <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="41"/>
+      <c r="C17" s="36"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="41"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="36"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="12"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="41"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="36"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="12"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="41"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="36"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="12"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="41"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="36"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="41"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="36"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="12"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="41"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="36"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="12"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="41"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="36"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="12"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="41"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="36"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="12"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="41"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="36"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="41"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="36"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="12"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="41"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="36"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="12"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="41"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="36"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="41"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="36"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="12"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="41"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="36"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="12"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="41"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="36"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="41"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="36"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="12"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="41"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="36"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="12"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="41"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="36"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="12"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="41"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="36"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2546,122 +2567,122 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.08984375" style="42" customWidth="1"/>
+    <col min="1" max="1" width="35.08984375" style="37" customWidth="1"/>
     <col min="2" max="2" width="79.08984375" customWidth="1"/>
-    <col min="3" max="3" width="43.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.453125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="41"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="12"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="41"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="12"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="41"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="12"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="41"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="12"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="41"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="12"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="41"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="12"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="41"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="12"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="41"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="12"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="41"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="12"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="41"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="12"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="41"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="12"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="41"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="12"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="41"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="12"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="41"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="12"/>
+      <c r="C18" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FFCBF3-9A82-40E9-A711-13191F4F52CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005E5706-A14B-4318-8635-09C5CA37F288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="130">
   <si>
     <t>Topic</t>
   </si>
@@ -435,6 +435,18 @@
   </si>
   <si>
     <t>Used the concept that in sorted and roatated array ont one element is greater than the last element.</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>Length of String</t>
+  </si>
+  <si>
+    <t>20/11/2022</t>
+  </si>
+  <si>
+    <t>Reverse of string</t>
   </si>
 </sst>
 </file>
@@ -708,6 +720,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -716,9 +731,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1039,7 +1051,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1272,7 +1284,7 @@
       <c r="G9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="47" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1296,7 +1308,7 @@
       <c r="G10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="47" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1419,16 +1431,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
@@ -1731,16 +1743,16 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="16"/>
@@ -1983,16 +1995,16 @@
       <c r="H41" s="16"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="50"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="16"/>
@@ -2181,28 +2193,44 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="16"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="16"/>
+      <c r="A51" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="50"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="16"/>
-      <c r="B52" s="9"/>
+      <c r="B52" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="16"/>
+      <c r="D52" s="16">
+        <v>1</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" s="20">
+        <v>0</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="16"/>
-      <c r="B53" s="9"/>
+      <c r="B53" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="C53" s="3"/>
       <c r="D53" s="16"/>
       <c r="E53" s="22"/>
@@ -2221,10 +2249,11 @@
       <c r="H54" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A30:H30"/>
     <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A51:H51"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{6A12171F-B82B-4AFA-AD02-AF70AA0770D0}"/>

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005E5706-A14B-4318-8635-09C5CA37F288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1CDE57-478C-4CE3-A549-82AAD33CD600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="134">
   <si>
     <t>Topic</t>
   </si>
@@ -446,7 +446,19 @@
     <t>20/11/2022</t>
   </si>
   <si>
-    <t>Reverse of string</t>
+    <t>344. Reverse String</t>
+  </si>
+  <si>
+    <t>Check If The String Is A Palindrome</t>
+  </si>
+  <si>
+    <t>Upper case to Lower case</t>
+  </si>
+  <si>
+    <t>ch - 'A' + 'a'</t>
+  </si>
+  <si>
+    <t>125. Valid Palindrome</t>
   </si>
 </sst>
 </file>
@@ -1047,11 +1059,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DE015C-28F9-428F-8E3F-DA3063A7344F}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2231,22 +2243,464 @@
       <c r="B53" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="16"/>
+      <c r="C53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="16">
+        <v>1</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" s="20">
+        <v>0</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="16"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="22"/>
+      <c r="B54" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="16">
+        <v>1</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" s="20">
+        <v>1</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" s="16"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="16"/>
+      <c r="B55" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="16">
+        <v>1</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F55" s="20"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="16"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="16"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="16"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="16"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="16"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="16"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="16"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="16"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="16"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="16"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="16"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="16"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="16"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="16"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="16"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="16"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="16"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="16"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="16"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="16"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="16"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="16"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="16"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="16"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="16"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="16"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="16"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="16"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="16"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="16"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="16"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="16"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="16"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="16"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="16"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="16"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="16"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="16"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="16"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="16"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="16"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="16"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="16"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="16"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="16"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="16"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="16"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="16"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="16"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="16"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="16"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="16"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="16"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="16"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="16"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="16"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="16"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="16"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="16"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="16"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="16"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="16"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="16"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="16"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="16"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="16"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="16"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="16"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="16"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="16"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="16"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="16"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="16"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="16"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="16"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="16"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="16"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="16"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="16"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" s="16"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2284,9 +2738,12 @@
     <hyperlink ref="C48" r:id="rId26" xr:uid="{81577813-0AA5-44F1-97E3-0EF57EB1F430}"/>
     <hyperlink ref="C49" r:id="rId27" xr:uid="{88E7C87E-B181-4FA3-9CFC-EA9B470BB298}"/>
     <hyperlink ref="C50" r:id="rId28" xr:uid="{4A58C32C-BA57-4C6A-AC42-CD75F7626422}"/>
+    <hyperlink ref="C53" r:id="rId29" xr:uid="{AEE8725D-E34F-47D4-A8FF-F573357BCF22}"/>
+    <hyperlink ref="C54" r:id="rId30" xr:uid="{1966F592-02AE-4FBC-89E7-6857BBEA053F}"/>
+    <hyperlink ref="C55" r:id="rId31" xr:uid="{9D8BD908-5C46-4C99-B24A-D1FE685B4EDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
 
@@ -2296,7 +2753,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2476,8 +2933,12 @@
       <c r="C17" s="36"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>132</v>
+      </c>
       <c r="C18" s="36"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1CDE57-478C-4CE3-A549-82AAD33CD600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8936DC-99CD-48EB-8EA2-985F0116DDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="135">
   <si>
     <t>Topic</t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t>125. Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Maximum Occuring Character</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1066,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
+      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2298,19 +2301,37 @@
       <c r="E55" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="F55" s="20"/>
-      <c r="G55" s="22"/>
+      <c r="F55" s="20">
+        <v>1</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="16"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="16"/>
+      <c r="B56" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="16">
+        <v>1</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" s="20">
+        <v>2</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="16"/>
@@ -2741,9 +2762,10 @@
     <hyperlink ref="C53" r:id="rId29" xr:uid="{AEE8725D-E34F-47D4-A8FF-F573357BCF22}"/>
     <hyperlink ref="C54" r:id="rId30" xr:uid="{1966F592-02AE-4FBC-89E7-6857BBEA053F}"/>
     <hyperlink ref="C55" r:id="rId31" xr:uid="{9D8BD908-5C46-4C99-B24A-D1FE685B4EDE}"/>
+    <hyperlink ref="C56" r:id="rId32" xr:uid="{0D63BBED-553E-4707-97C4-2B5D08BD6A89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
 

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8936DC-99CD-48EB-8EA2-985F0116DDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8FFB06-9533-4434-9123-9930998C74DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="137">
   <si>
     <t>Topic</t>
   </si>
@@ -462,6 +462,12 @@
   </si>
   <si>
     <t>Maximum Occuring Character</t>
+  </si>
+  <si>
+    <t>Replace Spaces</t>
+  </si>
+  <si>
+    <t>21/11/2022</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1072,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2335,12 +2341,24 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="16"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="22"/>
+      <c r="B57" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="16">
+        <v>1</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F57" s="20">
+        <v>0</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>7</v>
+      </c>
       <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
@@ -2763,9 +2781,10 @@
     <hyperlink ref="C54" r:id="rId30" xr:uid="{1966F592-02AE-4FBC-89E7-6857BBEA053F}"/>
     <hyperlink ref="C55" r:id="rId31" xr:uid="{9D8BD908-5C46-4C99-B24A-D1FE685B4EDE}"/>
     <hyperlink ref="C56" r:id="rId32" xr:uid="{0D63BBED-553E-4707-97C4-2B5D08BD6A89}"/>
+    <hyperlink ref="C57" r:id="rId33" xr:uid="{8ED1F750-F3FC-4AE8-8C66-046EBF2079FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8FFB06-9533-4434-9123-9930998C74DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CFA240-98E2-49EE-9F23-07F4DDBEAF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions Tracker" sheetId="1" r:id="rId1"/>
-    <sheet name="Concepts to remeber" sheetId="2" r:id="rId2"/>
-    <sheet name="Time Complexity" sheetId="3" r:id="rId3"/>
+    <sheet name="Pending" sheetId="4" r:id="rId2"/>
+    <sheet name="Concepts to remeber" sheetId="2" r:id="rId3"/>
+    <sheet name="Time Complexity" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Leetcode">'Questions Tracker'!$C$5</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="145">
   <si>
     <t>Topic</t>
   </si>
@@ -468,6 +469,30 @@
   </si>
   <si>
     <t>21/11/2022</t>
+  </si>
+  <si>
+    <t>How to inplace replace in a string</t>
+  </si>
+  <si>
+    <t>read about getlin()</t>
+  </si>
+  <si>
+    <t>1910. Remove All Occurrences of a Substring</t>
+  </si>
+  <si>
+    <t>leetcode</t>
+  </si>
+  <si>
+    <t>567. Permutation in String</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>2D Array</t>
+  </si>
+  <si>
+    <t>Row wise sum Problem</t>
   </si>
 </sst>
 </file>
@@ -605,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -753,6 +778,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1072,7 +1098,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2363,37 +2389,59 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="16"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="22"/>
+      <c r="B58" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="16">
+        <v>1</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F58" s="20">
+        <v>2</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" s="16"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="16"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="16"/>
+    <row r="59" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="41"/>
+      <c r="B59" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="41"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="41" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="16"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="16"/>
+      <c r="A60" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="50"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="16"/>
-      <c r="B61" s="9"/>
+      <c r="B61" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="C61" s="3"/>
       <c r="D61" s="16"/>
       <c r="E61" s="22"/>
@@ -2742,11 +2790,12 @@
       <c r="H95" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A30:H30"/>
     <mergeCell ref="A42:H42"/>
     <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A60:H60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{6A12171F-B82B-4AFA-AD02-AF70AA0770D0}"/>
@@ -2782,13 +2831,44 @@
     <hyperlink ref="C55" r:id="rId31" xr:uid="{9D8BD908-5C46-4C99-B24A-D1FE685B4EDE}"/>
     <hyperlink ref="C56" r:id="rId32" xr:uid="{0D63BBED-553E-4707-97C4-2B5D08BD6A89}"/>
     <hyperlink ref="C57" r:id="rId33" xr:uid="{8ED1F750-F3FC-4AE8-8C66-046EBF2079FD}"/>
+    <hyperlink ref="C58" r:id="rId34" xr:uid="{194FA8D3-1857-43E0-AED8-81373E576F88}"/>
+    <hyperlink ref="C59" r:id="rId35" xr:uid="{631A2A7F-BB4D-4FB9-A96E-7171C3F4183C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252A5592-1000-4EC5-A298-C73FBE8E9664}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E97AED2-646B-4C74-8BF8-BADCE88819AE}">
   <dimension ref="A1:C36"/>
   <sheetViews>
@@ -3088,7 +3168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C3186E-FBF1-47DA-BF72-1BE79B38334C}">
   <dimension ref="A1:C18"/>
   <sheetViews>

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CFA240-98E2-49EE-9F23-07F4DDBEAF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45883CE6-BC2F-4B3E-8C4D-1FD57AE7D7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="147">
   <si>
     <t>Topic</t>
   </si>
@@ -493,6 +493,12 @@
   </si>
   <si>
     <t>Row wise sum Problem</t>
+  </si>
+  <si>
+    <t>Largest row sum Problem</t>
+  </si>
+  <si>
+    <t>Print Like A Wave</t>
   </si>
 </sst>
 </file>
@@ -769,6 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -778,7 +785,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1096,9 +1102,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DE015C-28F9-428F-8E3F-DA3063A7344F}">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1478,16 +1484,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="51"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
@@ -1790,16 +1796,16 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="16"/>
@@ -2042,16 +2048,16 @@
       <c r="H41" s="16"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="51"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="16"/>
@@ -2240,16 +2246,16 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="50"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="51"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="16"/>
@@ -2409,7 +2415,7 @@
       </c>
       <c r="H58" s="16"/>
     </row>
-    <row r="59" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="41"/>
       <c r="B59" s="42" t="s">
         <v>141</v>
@@ -2426,16 +2432,16 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="50"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="51"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="16"/>
@@ -2443,30 +2449,60 @@
         <v>144</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="22"/>
+      <c r="D61" s="16">
+        <v>1</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" s="20">
+        <v>0</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>7</v>
+      </c>
       <c r="H61" s="16"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="16"/>
-      <c r="B62" s="9"/>
+      <c r="B62" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="C62" s="3"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="22"/>
+      <c r="D62" s="16">
+        <v>1</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F62" s="20">
+        <v>0</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>7</v>
+      </c>
       <c r="H62" s="16"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="16"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="22"/>
+      <c r="B63" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="16">
+        <v>1</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" s="20">
+        <v>1</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
@@ -2833,9 +2869,10 @@
     <hyperlink ref="C57" r:id="rId33" xr:uid="{8ED1F750-F3FC-4AE8-8C66-046EBF2079FD}"/>
     <hyperlink ref="C58" r:id="rId34" xr:uid="{194FA8D3-1857-43E0-AED8-81373E576F88}"/>
     <hyperlink ref="C59" r:id="rId35" xr:uid="{631A2A7F-BB4D-4FB9-A96E-7171C3F4183C}"/>
+    <hyperlink ref="C63" r:id="rId36" xr:uid="{C7712AC2-8D82-4A2B-9732-DC3D2AAC16EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45883CE6-BC2F-4B3E-8C4D-1FD57AE7D7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA29DA8-83E4-40E9-A026-233A65281C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions Tracker" sheetId="1" r:id="rId1"/>
-    <sheet name="Pending" sheetId="4" r:id="rId2"/>
-    <sheet name="Concepts to remeber" sheetId="2" r:id="rId3"/>
-    <sheet name="Time Complexity" sheetId="3" r:id="rId4"/>
+    <sheet name="Concepts to remeber" sheetId="2" r:id="rId2"/>
+    <sheet name="Time Complexity" sheetId="3" r:id="rId3"/>
+    <sheet name="Pending" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Leetcode">'Questions Tracker'!$C$5</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="161">
   <si>
     <t>Topic</t>
   </si>
@@ -499,6 +499,55 @@
   </si>
   <si>
     <t>Print Like A Wave</t>
+  </si>
+  <si>
+    <t>Maths for DSA</t>
+  </si>
+  <si>
+    <t>204. Count Primes</t>
+  </si>
+  <si>
+    <t>22/11/2022</t>
+  </si>
+  <si>
+    <t>Solved using Sieve method. TC: (n *(log(log n)))</t>
+  </si>
+  <si>
+    <t>GCD</t>
+  </si>
+  <si>
+    <t>formula is : gcd(a,b) = gcd(a-b,b)</t>
+  </si>
+  <si>
+    <t>string to DSA maths do aache se</t>
+  </si>
+  <si>
+    <t>Pointers</t>
+  </si>
+  <si>
+    <t>What is pointer?</t>
+  </si>
+  <si>
+    <t>Pointer stores the addresst.
+Ex: int *ptr = &amp;num;</t>
+  </si>
+  <si>
+    <t>how to read: int *p</t>
+  </si>
+  <si>
+    <t>p is a pointer to int datatype.</t>
+  </si>
+  <si>
+    <t>Address jo right side ka hai pointer ka datatype bhi us hi datatype ka hoga.
+Ex-1: 
+int num = 5;
+int *ptr = &amp;num;
+Ex-2:
+char ch = 'a';
+char *ptr = &amp;ch;</t>
+  </si>
+  <si>
+    <t>Pointer datatype</t>
   </si>
 </sst>
 </file>
@@ -539,7 +588,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,6 +616,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,7 +691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -783,6 +838,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1102,9 +1166,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DE015C-28F9-428F-8E3F-DA3063A7344F}">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2506,34 +2570,62 @@
       <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="16"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="16"/>
+      <c r="A64" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="51"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="16"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="16"/>
+      <c r="B65" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="16">
+        <v>1</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" s="20">
+        <v>2</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="16"/>
-      <c r="B66" s="9"/>
+      <c r="B66" s="9" t="s">
+        <v>151</v>
+      </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="16"/>
+      <c r="D66" s="16">
+        <v>1</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F66" s="20">
+        <v>1</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="16"/>
@@ -2826,7 +2918,8 @@
       <c r="H95" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A64:H64"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A30:H30"/>
     <mergeCell ref="A42:H42"/>
@@ -2870,48 +2963,20 @@
     <hyperlink ref="C58" r:id="rId34" xr:uid="{194FA8D3-1857-43E0-AED8-81373E576F88}"/>
     <hyperlink ref="C59" r:id="rId35" xr:uid="{631A2A7F-BB4D-4FB9-A96E-7171C3F4183C}"/>
     <hyperlink ref="C63" r:id="rId36" xr:uid="{C7712AC2-8D82-4A2B-9732-DC3D2AAC16EA}"/>
+    <hyperlink ref="C65" r:id="rId37" xr:uid="{B313F4F3-21EB-428D-B822-A5BD52D3A806}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252A5592-1000-4EC5-A298-C73FBE8E9664}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E97AED2-646B-4C74-8BF8-BADCE88819AE}">
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3100,23 +3165,37 @@
       <c r="C18" s="36"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="36"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="12"/>
+      <c r="A19" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+    </row>
+    <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="C20" s="36"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="C21" s="36"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="9"/>
-      <c r="B22" s="12"/>
+    <row r="22" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="C22" s="36"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -3190,6 +3269,9 @@
       <c r="C36" s="36"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A19:C19"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{CABC0D4D-B593-4D72-96D0-63C398F8EB41}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{FB6ED79F-E1A9-443E-8FEF-AF4A08694CF2}"/>
@@ -3205,7 +3287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C3186E-FBF1-47DA-BF72-1BE79B38334C}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -3336,4 +3418,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252A5592-1000-4EC5-A298-C73FBE8E9664}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA29DA8-83E4-40E9-A026-233A65281C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA436424-FBB4-4515-9628-D83BD55B05B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="163">
   <si>
     <t>Topic</t>
   </si>
@@ -548,6 +548,12 @@
   </si>
   <si>
     <t>Pointer datatype</t>
+  </si>
+  <si>
+    <t>arr[i] = *(arr+i)</t>
+  </si>
+  <si>
+    <t>i[arr] = *(i+arr)</t>
   </si>
 </sst>
 </file>
@@ -1167,8 +1173,8 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2975,8 +2981,8 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3199,12 +3205,16 @@
       <c r="C22" s="36"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
+      <c r="A23" s="9" t="s">
+        <v>161</v>
+      </c>
       <c r="B23" s="12"/>
       <c r="C23" s="36"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
+      <c r="A24" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="B24" s="12"/>
       <c r="C24" s="36"/>
     </row>

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA436424-FBB4-4515-9628-D83BD55B05B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24F61D0-2A5E-464D-805E-357C07E00F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions Tracker" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="168">
   <si>
     <t>Topic</t>
   </si>
@@ -554,6 +554,22 @@
   </si>
   <si>
     <t>i[arr] = *(i+arr)</t>
+  </si>
+  <si>
+    <t>Cannot increment array because it is stored in symbol table</t>
+  </si>
+  <si>
+    <t>we cannot do -&gt; arr = arr+1;
+we can de -&gt; pointer = pointer+1;</t>
+  </si>
+  <si>
+    <t>Static vs Dynamic memory</t>
+  </si>
+  <si>
+    <t>There are two type of memory: Static and Dynamic. Stack memory is called as static memory and Heap is called as Dynamic memory</t>
+  </si>
+  <si>
+    <t>"new" keyword is used to use heap memory by default stack memory is used</t>
   </si>
 </sst>
 </file>
@@ -697,7 +713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -854,6 +870,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1172,9 +1191,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DE015C-28F9-428F-8E3F-DA3063A7344F}">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2980,14 +2999,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E97AED2-646B-4C74-8BF8-BADCE88819AE}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1796875" style="55" customWidth="1"/>
     <col min="2" max="2" width="58.1796875" style="7" customWidth="1"/>
     <col min="3" max="3" width="37.81640625" style="37" bestFit="1" customWidth="1"/>
   </cols>
@@ -3026,7 +3045,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -3037,7 +3056,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -3046,7 +3065,7 @@
       <c r="C5" s="36"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -3055,7 +3074,7 @@
       <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -3064,7 +3083,7 @@
       <c r="C7" s="36"/>
     </row>
     <row r="8" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -3075,7 +3094,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -3086,7 +3105,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -3097,7 +3116,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -3108,7 +3127,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -3117,7 +3136,7 @@
       <c r="C12" s="36"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -3126,7 +3145,7 @@
       <c r="C13" s="36"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -3135,7 +3154,7 @@
       <c r="C14" s="36"/>
     </row>
     <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -3144,7 +3163,7 @@
       <c r="C15" s="36"/>
     </row>
     <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>119</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -3153,7 +3172,7 @@
       <c r="C16" s="36"/>
     </row>
     <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -3162,7 +3181,7 @@
       <c r="C17" s="36"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>131</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -3178,7 +3197,7 @@
       <c r="C19" s="54"/>
     </row>
     <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>155</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -3187,7 +3206,7 @@
       <c r="C20" s="36"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>157</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -3196,7 +3215,7 @@
       <c r="C21" s="36"/>
     </row>
     <row r="22" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>160</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -3205,82 +3224,93 @@
       <c r="C22" s="36"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>161</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="36"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>162</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="36"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="12"/>
+    <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="C25" s="36"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="36"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
+      <c r="A26" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+    </row>
+    <row r="27" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
+        <v>166</v>
+      </c>
       <c r="B27" s="12"/>
       <c r="C27" s="36"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
+    <row r="28" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="B28" s="12"/>
       <c r="C28" s="36"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="12"/>
       <c r="C29" s="36"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="12"/>
       <c r="C30" s="36"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="12"/>
       <c r="C31" s="36"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="9"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="12"/>
       <c r="C32" s="36"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="12"/>
       <c r="C33" s="36"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="9"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="12"/>
       <c r="C34" s="36"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="9"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="12"/>
       <c r="C35" s="36"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="9"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="12"/>
       <c r="C36" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{CABC0D4D-B593-4D72-96D0-63C398F8EB41}"/>

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24F61D0-2A5E-464D-805E-357C07E00F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF44357-2042-4C63-8236-0DD36133C31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="170">
   <si>
     <t>Topic</t>
   </si>
@@ -570,6 +570,12 @@
   </si>
   <si>
     <t>"new" keyword is used to use heap memory by default stack memory is used</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>Jb bade problem ka solution depend kre chote solution pe to use hm recursion kehte hai</t>
   </si>
 </sst>
 </file>
@@ -853,6 +859,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -870,9 +879,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1573,16 +1579,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="52"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
@@ -1885,16 +1891,16 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="52"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="16"/>
@@ -2137,16 +2143,16 @@
       <c r="H41" s="16"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="52"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="16"/>
@@ -2335,16 +2341,16 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="51"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="52"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="16"/>
@@ -2521,16 +2527,16 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="51"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="52"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="16"/>
@@ -2595,16 +2601,16 @@
       <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="49" t="s">
+      <c r="A64" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="51"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="52"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="16"/>
@@ -3001,12 +3007,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.1796875" style="55" customWidth="1"/>
+    <col min="1" max="1" width="38.1796875" style="49" customWidth="1"/>
     <col min="2" max="2" width="58.1796875" style="7" customWidth="1"/>
     <col min="3" max="3" width="37.81640625" style="37" bestFit="1" customWidth="1"/>
   </cols>
@@ -3190,11 +3196,11 @@
       <c r="C18" s="36"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
     </row>
     <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
@@ -3247,11 +3253,11 @@
       <c r="C25" s="36"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
     </row>
     <row r="27" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
@@ -3268,13 +3274,19 @@
       <c r="C28" s="36"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="10"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="10"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>169</v>
+      </c>
       <c r="C30" s="36"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -3308,9 +3320,10 @@
       <c r="C36" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{CABC0D4D-B593-4D72-96D0-63C398F8EB41}"/>

--- a/All Questions/Question Tracker.xlsx
+++ b/All Questions/Question Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaivishal\Desktop\C++\All Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF44357-2042-4C63-8236-0DD36133C31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E832E42A-506E-452C-87EB-22DBB8D74CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1B8276A7-4CE7-41B4-8E94-9ADC3B8771EF}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="172">
   <si>
     <t>Topic</t>
   </si>
@@ -576,6 +576,13 @@
   </si>
   <si>
     <t>Jb bade problem ka solution depend kre chote solution pe to use hm recursion kehte hai</t>
+  </si>
+  <si>
+    <t>a^b question</t>
+  </si>
+  <si>
+    <t>if b is even then a^b = a^b/2 * a^b/2
+if b is odd then a^b is a*(a^b/2 * a^b/2)</t>
   </si>
 </sst>
 </file>
@@ -3006,8 +3013,8 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3289,9 +3296,13 @@
       </c>
       <c r="C30" s="36"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="10"/>
-      <c r="B31" s="12"/>
+    <row r="31" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="C31" s="36"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
